--- a/选课名单.xlsx
+++ b/选课名单.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1048">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="1076">
   <si>
     <t>20214227003</t>
   </si>
@@ -49,525 +49,579 @@
     <t>迟到0:30:14</t>
   </si>
   <si>
+    <t>✔</t>
+  </si>
+  <si>
+    <t>迟到0:31:30</t>
+  </si>
+  <si>
+    <t>迟到0:41:48</t>
+  </si>
+  <si>
+    <t>迟到0:32:01</t>
+  </si>
+  <si>
+    <t>迟到0:39:11</t>
+  </si>
+  <si>
+    <t>迟到0:32:17</t>
+  </si>
+  <si>
+    <t>20214227004</t>
+  </si>
+  <si>
+    <t>黄赛豪</t>
+  </si>
+  <si>
+    <t>迟到0:36:21</t>
+  </si>
+  <si>
+    <t>迟到0:35:03</t>
+  </si>
+  <si>
+    <t>迟到0:22:56</t>
+  </si>
+  <si>
+    <t>迟到0:30:09</t>
+  </si>
+  <si>
+    <t>迟到0:17:47</t>
+  </si>
+  <si>
+    <t>迟到0:20:47</t>
+  </si>
+  <si>
+    <t>迟到0:13:33</t>
+  </si>
+  <si>
+    <t>迟到0:32:53</t>
+  </si>
+  <si>
+    <t>迟到0:33:38</t>
+  </si>
+  <si>
+    <t>迟到0:14:56</t>
+  </si>
+  <si>
+    <t>迟到0:23:26</t>
+  </si>
+  <si>
+    <t>迟到0:29:41</t>
+  </si>
+  <si>
+    <t>迟到0:21:47</t>
+  </si>
+  <si>
+    <t>迟到0:06:13</t>
+  </si>
+  <si>
+    <t>迟到0:50:33</t>
+  </si>
+  <si>
+    <t>20214227005</t>
+  </si>
+  <si>
+    <t>邹健</t>
+  </si>
+  <si>
+    <t>迟到0:28:17</t>
+  </si>
+  <si>
+    <t>迟到0:39:27</t>
+  </si>
+  <si>
+    <t>迟到0:41:39</t>
+  </si>
+  <si>
+    <t>迟到0:35:40</t>
+  </si>
+  <si>
+    <t>迟到0:35:36</t>
+  </si>
+  <si>
+    <t>迟到0:30:49</t>
+  </si>
+  <si>
+    <t>迟到0:31:25</t>
+  </si>
+  <si>
+    <t>迟到0:32:04</t>
+  </si>
+  <si>
+    <t>迟到1:18:01</t>
+  </si>
+  <si>
+    <t>迟到0:31:13</t>
+  </si>
+  <si>
+    <t>迟到0:31:38</t>
+  </si>
+  <si>
+    <t>迟到0:31:08</t>
+  </si>
+  <si>
+    <t>迟到0:29:20</t>
+  </si>
+  <si>
+    <t>迟到0:28:10</t>
+  </si>
+  <si>
+    <t>迟到0:34:44</t>
+  </si>
+  <si>
+    <t>20214227006</t>
+  </si>
+  <si>
+    <t>郑少辉</t>
+  </si>
+  <si>
+    <t>迟到0:22:45</t>
+  </si>
+  <si>
+    <t>迟到0:28:13</t>
+  </si>
+  <si>
+    <t>迟到0:24:41</t>
+  </si>
+  <si>
+    <t>迟到0:34:22</t>
+  </si>
+  <si>
+    <t>迟到0:27:44</t>
+  </si>
+  <si>
+    <t>迟到0:20:42</t>
+  </si>
+  <si>
+    <t>迟到0:24:44</t>
+  </si>
+  <si>
+    <t>迟到0:30:50</t>
+  </si>
+  <si>
+    <t>迟到0:26:59</t>
+  </si>
+  <si>
+    <t>迟到0:28:01</t>
+  </si>
+  <si>
+    <t>迟到0:27:58</t>
+  </si>
+  <si>
+    <t>迟到0:35:58</t>
+  </si>
+  <si>
+    <t>迟到0:30:24</t>
+  </si>
+  <si>
+    <t>迟到0:27:51</t>
+  </si>
+  <si>
+    <t>20214227007</t>
+  </si>
+  <si>
+    <t>张涵</t>
+  </si>
+  <si>
+    <t>迟到0:24:05</t>
+  </si>
+  <si>
+    <t>迟到0:23:12</t>
+  </si>
+  <si>
+    <t>迟到0:37:02</t>
+  </si>
+  <si>
+    <t>迟到0:35:47</t>
+  </si>
+  <si>
+    <t>迟到0:39:19</t>
+  </si>
+  <si>
+    <t>迟到0:50:50</t>
+  </si>
+  <si>
+    <t>迟到0:28:43</t>
+  </si>
+  <si>
+    <t>迟到0:05:15</t>
+  </si>
+  <si>
+    <t>迟到0:26:31</t>
+  </si>
+  <si>
+    <t>迟到0:11:08</t>
+  </si>
+  <si>
+    <t>迟到0:31:21</t>
+  </si>
+  <si>
+    <t>迟到0:14:09</t>
+  </si>
+  <si>
+    <t>迟到0:32:56</t>
+  </si>
+  <si>
+    <t>迟到0:17:41</t>
+  </si>
+  <si>
+    <t>20214227008</t>
+  </si>
+  <si>
+    <t>肖义胜</t>
+  </si>
+  <si>
+    <t>迟到0:48:59</t>
+  </si>
+  <si>
+    <t>迟到0:36:35</t>
+  </si>
+  <si>
+    <t>迟到0:43:10</t>
+  </si>
+  <si>
+    <t>迟到0:43:57</t>
+  </si>
+  <si>
+    <t>迟到0:34:34</t>
+  </si>
+  <si>
+    <t>迟到0:29:26</t>
+  </si>
+  <si>
+    <t>迟到0:40:44</t>
+  </si>
+  <si>
+    <t>迟到0:40:20</t>
+  </si>
+  <si>
+    <t>迟到0:41:24</t>
+  </si>
+  <si>
+    <t>迟到0:30:11</t>
+  </si>
+  <si>
+    <t>迟到1:40:23</t>
+  </si>
+  <si>
+    <t>迟到0:43:20</t>
+  </si>
+  <si>
+    <t>迟到0:51:34</t>
+  </si>
+  <si>
+    <t>20214227009</t>
+  </si>
+  <si>
+    <t>李林钦</t>
+  </si>
+  <si>
+    <t>迟到0:29:03</t>
+  </si>
+  <si>
+    <t>迟到0:13:48</t>
+  </si>
+  <si>
+    <t>迟到0:28:06</t>
+  </si>
+  <si>
+    <t>迟到0:29:59</t>
+  </si>
+  <si>
+    <t>迟到0:33:54</t>
+  </si>
+  <si>
+    <t>迟到0:26:02</t>
+  </si>
+  <si>
+    <t>迟到0:23:42</t>
+  </si>
+  <si>
+    <t>迟到0:29:45</t>
+  </si>
+  <si>
+    <t>迟到0:22:15</t>
+  </si>
+  <si>
+    <t>迟到0:15:44</t>
+  </si>
+  <si>
+    <t>迟到0:04:06</t>
+  </si>
+  <si>
+    <t>20214227010</t>
+  </si>
+  <si>
+    <t>陈强</t>
+  </si>
+  <si>
+    <t>迟到0:24:58</t>
+  </si>
+  <si>
+    <t>迟到0:29:52</t>
+  </si>
+  <si>
+    <t>迟到0:28:47</t>
+  </si>
+  <si>
+    <t>迟到0:21:31</t>
+  </si>
+  <si>
+    <t>迟到0:28:45</t>
+  </si>
+  <si>
+    <t>迟到0:27:57</t>
+  </si>
+  <si>
+    <t>迟到0:15:05</t>
+  </si>
+  <si>
+    <t>迟到0:20:19</t>
+  </si>
+  <si>
+    <t>迟到0:22:18</t>
+  </si>
+  <si>
+    <t>迟到0:23:28</t>
+  </si>
+  <si>
+    <t>迟到0:31:11</t>
+  </si>
+  <si>
+    <t>迟到0:14:48</t>
+  </si>
+  <si>
+    <t>迟到0:27:04</t>
+  </si>
+  <si>
+    <t>迟到0:37:15</t>
+  </si>
+  <si>
+    <t>迟到0:11:09</t>
+  </si>
+  <si>
+    <t>迟到0:29:18</t>
+  </si>
+  <si>
+    <t>20214227011</t>
+  </si>
+  <si>
+    <t>谈川源</t>
+  </si>
+  <si>
+    <t>迟到0:08:27</t>
+  </si>
+  <si>
+    <t>迟到0:13:15</t>
+  </si>
+  <si>
+    <t>迟到0:12:19</t>
+  </si>
+  <si>
+    <t>迟到0:16:12</t>
+  </si>
+  <si>
+    <t>迟到0:38:41</t>
+  </si>
+  <si>
+    <t>迟到0:23:46</t>
+  </si>
+  <si>
+    <t>迟到0:33:19</t>
+  </si>
+  <si>
+    <t>迟到0:37:45</t>
+  </si>
+  <si>
+    <t>迟到0:23:06</t>
+  </si>
+  <si>
+    <t>迟到0:35:42</t>
+  </si>
+  <si>
+    <t>迟到0:25:36</t>
+  </si>
+  <si>
+    <t>迟到0:27:12</t>
+  </si>
+  <si>
+    <t>20214227012</t>
+  </si>
+  <si>
+    <t>田新宇</t>
+  </si>
+  <si>
+    <t>迟到0:12:41</t>
+  </si>
+  <si>
+    <t>迟到0:24:47</t>
+  </si>
+  <si>
+    <t>迟到0:27:42</t>
+  </si>
+  <si>
+    <t>迟到0:17:04</t>
+  </si>
+  <si>
+    <t>迟到0:25:39</t>
+  </si>
+  <si>
+    <t>迟到0:11:13</t>
+  </si>
+  <si>
+    <t>迟到0:29:13</t>
+  </si>
+  <si>
+    <t>迟到0:16:30</t>
+  </si>
+  <si>
+    <t>迟到0:28:42</t>
+  </si>
+  <si>
+    <t>迟到0:28:55</t>
+  </si>
+  <si>
+    <t>迟到0:19:00</t>
+  </si>
+  <si>
+    <t>迟到0:07:33</t>
+  </si>
+  <si>
+    <t>迟到0:22:37</t>
+  </si>
+  <si>
+    <t>迟到0:03:38</t>
+  </si>
+  <si>
+    <t>迟到0:02:11</t>
+  </si>
+  <si>
+    <t>迟到0:36:11</t>
+  </si>
+  <si>
+    <t>20214227013</t>
+  </si>
+  <si>
+    <t>崔秀莲</t>
+  </si>
+  <si>
+    <t>迟到0:20:13</t>
+  </si>
+  <si>
+    <t>迟到0:22:27</t>
+  </si>
+  <si>
+    <t>迟到0:21:51</t>
+  </si>
+  <si>
+    <t>迟到0:27:02</t>
+  </si>
+  <si>
+    <t>迟到0:34:18</t>
+  </si>
+  <si>
+    <t>迟到0:26:37</t>
+  </si>
+  <si>
+    <t>迟到0:34:19</t>
+  </si>
+  <si>
+    <t>迟到0:22:26</t>
+  </si>
+  <si>
+    <t>迟到0:15:50</t>
+  </si>
+  <si>
+    <t>迟到0:26:52</t>
+  </si>
+  <si>
+    <t>迟到0:23:16</t>
+  </si>
+  <si>
+    <t>迟到0:21:27</t>
+  </si>
+  <si>
+    <t>20214227014</t>
+  </si>
+  <si>
+    <t>杨帆</t>
+  </si>
+  <si>
+    <t>迟到0:03:07</t>
+  </si>
+  <si>
+    <t>迟到0:01:34</t>
+  </si>
+  <si>
+    <t>迟到0:12:48</t>
+  </si>
+  <si>
+    <t>迟到0:07:17</t>
+  </si>
+  <si>
+    <t>迟到0:23:37</t>
+  </si>
+  <si>
+    <t>迟到0:18:26</t>
+  </si>
+  <si>
+    <t>迟到0:00:11</t>
+  </si>
+  <si>
+    <t>迟到0:21:28</t>
+  </si>
+  <si>
+    <t>迟到0:11:30</t>
+  </si>
+  <si>
+    <t>迟到0:17:00</t>
+  </si>
+  <si>
+    <t>迟到0:21:19</t>
+  </si>
+  <si>
+    <t>迟到0:08:34</t>
+  </si>
+  <si>
+    <t>20214227015</t>
+  </si>
+  <si>
+    <t>王锋</t>
+  </si>
+  <si>
+    <t>迟到0:25:29</t>
+  </si>
+  <si>
+    <t>迟到0:32:26</t>
+  </si>
+  <si>
+    <t>迟到0:07:05</t>
+  </si>
+  <si>
+    <t>迟到0:35:55</t>
+  </si>
+  <si>
+    <t>迟到0:33:03</t>
+  </si>
+  <si>
     <t>没迟到</t>
   </si>
   <si>
-    <t>迟到0:31:30</t>
-  </si>
-  <si>
-    <t>迟到0:41:48</t>
-  </si>
-  <si>
-    <t>迟到0:32:01</t>
-  </si>
-  <si>
-    <t>迟到0:39:11</t>
-  </si>
-  <si>
-    <t>迟到0:32:17</t>
-  </si>
-  <si>
-    <t>20214227004</t>
-  </si>
-  <si>
-    <t>黄赛豪</t>
-  </si>
-  <si>
-    <t>迟到0:36:21</t>
-  </si>
-  <si>
-    <t>迟到0:22:56</t>
-  </si>
-  <si>
-    <t>迟到0:30:09</t>
-  </si>
-  <si>
-    <t>迟到0:17:47</t>
-  </si>
-  <si>
-    <t>迟到0:20:47</t>
-  </si>
-  <si>
-    <t>迟到0:13:33</t>
-  </si>
-  <si>
-    <t>迟到0:32:53</t>
-  </si>
-  <si>
-    <t>迟到0:33:38</t>
-  </si>
-  <si>
-    <t>迟到0:14:56</t>
-  </si>
-  <si>
-    <t>迟到0:23:26</t>
-  </si>
-  <si>
-    <t>迟到0:29:41</t>
-  </si>
-  <si>
-    <t>迟到0:21:47</t>
-  </si>
-  <si>
-    <t>迟到0:06:13</t>
-  </si>
-  <si>
-    <t>迟到0:50:33</t>
-  </si>
-  <si>
-    <t>20214227005</t>
-  </si>
-  <si>
-    <t>邹健</t>
-  </si>
-  <si>
-    <t>迟到0:28:17</t>
-  </si>
-  <si>
-    <t>迟到0:39:27</t>
-  </si>
-  <si>
-    <t>迟到0:41:39</t>
-  </si>
-  <si>
-    <t>迟到0:35:40</t>
-  </si>
-  <si>
-    <t>迟到0:35:36</t>
-  </si>
-  <si>
-    <t>迟到0:30:49</t>
-  </si>
-  <si>
-    <t>迟到0:31:25</t>
-  </si>
-  <si>
-    <t>迟到0:32:04</t>
-  </si>
-  <si>
-    <t>迟到1:18:01</t>
-  </si>
-  <si>
-    <t>迟到0:31:13</t>
-  </si>
-  <si>
-    <t>迟到0:31:38</t>
-  </si>
-  <si>
-    <t>迟到0:31:08</t>
-  </si>
-  <si>
-    <t>迟到0:29:20</t>
-  </si>
-  <si>
-    <t>迟到0:28:10</t>
-  </si>
-  <si>
-    <t>迟到0:34:44</t>
-  </si>
-  <si>
-    <t>20214227006</t>
-  </si>
-  <si>
-    <t>郑少辉</t>
-  </si>
-  <si>
-    <t>迟到0:22:45</t>
-  </si>
-  <si>
-    <t>迟到0:28:13</t>
-  </si>
-  <si>
-    <t>迟到0:24:41</t>
-  </si>
-  <si>
-    <t>迟到0:34:22</t>
-  </si>
-  <si>
-    <t>迟到0:27:44</t>
-  </si>
-  <si>
-    <t>迟到0:20:42</t>
-  </si>
-  <si>
-    <t>迟到0:24:44</t>
-  </si>
-  <si>
-    <t>迟到0:30:50</t>
-  </si>
-  <si>
-    <t>迟到0:26:59</t>
-  </si>
-  <si>
-    <t>迟到0:28:01</t>
-  </si>
-  <si>
-    <t>迟到0:27:58</t>
-  </si>
-  <si>
-    <t>迟到0:35:58</t>
-  </si>
-  <si>
-    <t>迟到0:30:24</t>
-  </si>
-  <si>
-    <t>迟到0:27:51</t>
-  </si>
-  <si>
-    <t>20214227007</t>
-  </si>
-  <si>
-    <t>张涵</t>
-  </si>
-  <si>
-    <t>迟到0:24:05</t>
-  </si>
-  <si>
-    <t>迟到0:23:12</t>
-  </si>
-  <si>
-    <t>迟到0:37:02</t>
-  </si>
-  <si>
-    <t>迟到0:35:47</t>
-  </si>
-  <si>
-    <t>迟到0:39:19</t>
-  </si>
-  <si>
-    <t>迟到0:50:50</t>
-  </si>
-  <si>
-    <t>迟到0:28:43</t>
-  </si>
-  <si>
-    <t>迟到0:05:15</t>
-  </si>
-  <si>
-    <t>迟到0:26:31</t>
-  </si>
-  <si>
-    <t>迟到0:11:08</t>
-  </si>
-  <si>
-    <t>迟到0:31:21</t>
-  </si>
-  <si>
-    <t>迟到0:14:09</t>
-  </si>
-  <si>
-    <t>迟到0:32:56</t>
-  </si>
-  <si>
-    <t>迟到0:17:41</t>
-  </si>
-  <si>
-    <t>20214227008</t>
-  </si>
-  <si>
-    <t>肖义胜</t>
-  </si>
-  <si>
-    <t>迟到0:48:59</t>
-  </si>
-  <si>
-    <t>迟到0:36:35</t>
-  </si>
-  <si>
-    <t>迟到0:43:10</t>
-  </si>
-  <si>
-    <t>迟到0:43:57</t>
-  </si>
-  <si>
-    <t>迟到0:34:34</t>
-  </si>
-  <si>
-    <t>迟到0:29:26</t>
-  </si>
-  <si>
-    <t>迟到0:40:44</t>
-  </si>
-  <si>
-    <t>迟到0:40:20</t>
-  </si>
-  <si>
-    <t>迟到0:41:24</t>
-  </si>
-  <si>
-    <t>迟到0:30:11</t>
-  </si>
-  <si>
-    <t>迟到1:40:23</t>
-  </si>
-  <si>
-    <t>迟到0:43:20</t>
-  </si>
-  <si>
-    <t>迟到0:51:34</t>
-  </si>
-  <si>
-    <t>20214227009</t>
-  </si>
-  <si>
-    <t>李林钦</t>
-  </si>
-  <si>
-    <t>迟到0:29:03</t>
-  </si>
-  <si>
-    <t>迟到0:13:48</t>
-  </si>
-  <si>
-    <t>迟到0:28:06</t>
-  </si>
-  <si>
-    <t>迟到0:29:59</t>
-  </si>
-  <si>
-    <t>迟到0:33:54</t>
-  </si>
-  <si>
-    <t>迟到0:26:02</t>
-  </si>
-  <si>
-    <t>迟到0:23:42</t>
-  </si>
-  <si>
-    <t>迟到0:29:45</t>
-  </si>
-  <si>
-    <t>迟到0:22:15</t>
-  </si>
-  <si>
-    <t>迟到0:15:44</t>
-  </si>
-  <si>
-    <t>迟到0:04:06</t>
-  </si>
-  <si>
-    <t>20214227010</t>
-  </si>
-  <si>
-    <t>陈强</t>
-  </si>
-  <si>
-    <t>迟到0:24:58</t>
-  </si>
-  <si>
-    <t>迟到0:29:52</t>
-  </si>
-  <si>
-    <t>迟到0:28:47</t>
-  </si>
-  <si>
-    <t>迟到0:21:31</t>
-  </si>
-  <si>
-    <t>迟到0:28:45</t>
-  </si>
-  <si>
-    <t>迟到0:27:57</t>
-  </si>
-  <si>
-    <t>迟到0:15:05</t>
-  </si>
-  <si>
-    <t>迟到0:20:19</t>
-  </si>
-  <si>
-    <t>迟到0:22:18</t>
-  </si>
-  <si>
-    <t>迟到0:23:28</t>
-  </si>
-  <si>
-    <t>迟到0:31:11</t>
-  </si>
-  <si>
-    <t>迟到0:14:48</t>
-  </si>
-  <si>
-    <t>迟到0:27:04</t>
-  </si>
-  <si>
-    <t>迟到0:37:15</t>
-  </si>
-  <si>
-    <t>迟到0:11:09</t>
-  </si>
-  <si>
-    <t>迟到0:29:18</t>
-  </si>
-  <si>
-    <t>20214227011</t>
-  </si>
-  <si>
-    <t>谈川源</t>
-  </si>
-  <si>
-    <t>迟到0:08:27</t>
-  </si>
-  <si>
-    <t>迟到0:13:15</t>
-  </si>
-  <si>
-    <t>迟到0:12:19</t>
-  </si>
-  <si>
-    <t>迟到0:16:12</t>
-  </si>
-  <si>
-    <t>迟到0:38:41</t>
-  </si>
-  <si>
-    <t>迟到0:23:46</t>
-  </si>
-  <si>
-    <t>迟到0:33:19</t>
-  </si>
-  <si>
-    <t>迟到0:37:45</t>
-  </si>
-  <si>
-    <t>迟到0:23:06</t>
-  </si>
-  <si>
-    <t>迟到0:35:42</t>
-  </si>
-  <si>
-    <t>迟到0:25:36</t>
-  </si>
-  <si>
-    <t>迟到0:27:12</t>
-  </si>
-  <si>
-    <t>20214227012</t>
-  </si>
-  <si>
-    <t>田新宇</t>
-  </si>
-  <si>
-    <t>迟到0:12:41</t>
-  </si>
-  <si>
-    <t>迟到0:24:47</t>
-  </si>
-  <si>
-    <t>迟到0:27:42</t>
-  </si>
-  <si>
-    <t>迟到0:17:04</t>
-  </si>
-  <si>
-    <t>迟到0:25:39</t>
-  </si>
-  <si>
-    <t>迟到0:11:13</t>
-  </si>
-  <si>
-    <t>迟到0:29:13</t>
-  </si>
-  <si>
-    <t>迟到0:16:30</t>
-  </si>
-  <si>
-    <t>迟到0:28:42</t>
-  </si>
-  <si>
-    <t>迟到0:28:55</t>
-  </si>
-  <si>
-    <t>迟到0:19:00</t>
-  </si>
-  <si>
-    <t>迟到0:07:33</t>
-  </si>
-  <si>
-    <t>迟到0:22:37</t>
-  </si>
-  <si>
-    <t>迟到0:03:38</t>
-  </si>
-  <si>
-    <t>迟到0:02:11</t>
-  </si>
-  <si>
-    <t>20214227013</t>
-  </si>
-  <si>
-    <t>崔秀莲</t>
-  </si>
-  <si>
-    <t>迟到0:20:13</t>
-  </si>
-  <si>
-    <t>迟到0:22:27</t>
-  </si>
-  <si>
-    <t>迟到0:21:51</t>
-  </si>
-  <si>
-    <t>迟到0:27:02</t>
-  </si>
-  <si>
-    <t>迟到0:34:18</t>
-  </si>
-  <si>
-    <t>迟到0:26:37</t>
-  </si>
-  <si>
-    <t>迟到0:34:19</t>
-  </si>
-  <si>
-    <t>迟到0:22:26</t>
-  </si>
-  <si>
-    <t>迟到0:15:50</t>
-  </si>
-  <si>
-    <t>迟到0:26:52</t>
-  </si>
-  <si>
-    <t>迟到0:23:16</t>
-  </si>
-  <si>
-    <t>迟到0:21:27</t>
-  </si>
-  <si>
-    <t>20214227014</t>
-  </si>
-  <si>
-    <t>杨帆</t>
-  </si>
-  <si>
-    <t>20214227015</t>
-  </si>
-  <si>
-    <t>王锋</t>
-  </si>
-  <si>
-    <t>迟到0:25:29</t>
-  </si>
-  <si>
-    <t>迟到0:07:05</t>
-  </si>
-  <si>
-    <t>迟到0:35:55</t>
-  </si>
-  <si>
-    <t>迟到0:33:03</t>
-  </si>
-  <si>
     <t>迟到0:27:41</t>
   </si>
   <si>
+    <t>迟到0:17:37</t>
+  </si>
+  <si>
     <t>20214227016</t>
   </si>
   <si>
     <t>韩梦玲</t>
   </si>
   <si>
+    <t>迟到0:25:58</t>
+  </si>
+  <si>
     <t>迟到0:12:13</t>
   </si>
   <si>
@@ -595,9 +649,6 @@
     <t>迟到0:21:29</t>
   </si>
   <si>
-    <t>迟到0:25:58</t>
-  </si>
-  <si>
     <t>迟到0:27:25</t>
   </si>
   <si>
@@ -652,6 +703,45 @@
     <t>王靖尧</t>
   </si>
   <si>
+    <t>迟到0:35:41</t>
+  </si>
+  <si>
+    <t>迟到0:31:04</t>
+  </si>
+  <si>
+    <t>迟到0:21:30</t>
+  </si>
+  <si>
+    <t>迟到0:33:41</t>
+  </si>
+  <si>
+    <t>迟到0:19:29</t>
+  </si>
+  <si>
+    <t>迟到0:29:56</t>
+  </si>
+  <si>
+    <t>迟到0:20:49</t>
+  </si>
+  <si>
+    <t>迟到0:50:38</t>
+  </si>
+  <si>
+    <t>迟到0:21:00</t>
+  </si>
+  <si>
+    <t>迟到0:34:02</t>
+  </si>
+  <si>
+    <t>迟到0:30:46</t>
+  </si>
+  <si>
+    <t>迟到0:21:06</t>
+  </si>
+  <si>
+    <t>迟到0:34:10</t>
+  </si>
+  <si>
     <t>20214227019</t>
   </si>
   <si>
@@ -667,9 +757,6 @@
     <t>迟到0:36:31</t>
   </si>
   <si>
-    <t>迟到0:30:46</t>
-  </si>
-  <si>
     <t>迟到0:33:17</t>
   </si>
   <si>
@@ -904,9 +991,6 @@
     <t>迟到0:38:36</t>
   </si>
   <si>
-    <t>迟到0:29:56</t>
-  </si>
-  <si>
     <t>迟到0:25:38</t>
   </si>
   <si>
@@ -937,40 +1021,31 @@
     <t>20214227025</t>
   </si>
   <si>
-    <t>迟到0:03:07</t>
-  </si>
-  <si>
-    <t>迟到0:01:34</t>
-  </si>
-  <si>
-    <t>迟到0:12:48</t>
-  </si>
-  <si>
-    <t>迟到0:07:17</t>
-  </si>
-  <si>
-    <t>迟到0:23:37</t>
-  </si>
-  <si>
-    <t>迟到0:18:26</t>
-  </si>
-  <si>
-    <t>迟到0:00:11</t>
-  </si>
-  <si>
-    <t>迟到0:21:28</t>
-  </si>
-  <si>
-    <t>迟到0:11:30</t>
-  </si>
-  <si>
-    <t>迟到0:17:00</t>
-  </si>
-  <si>
-    <t>迟到0:21:19</t>
-  </si>
-  <si>
-    <t>迟到0:08:34</t>
+    <t>迟到0:30:35</t>
+  </si>
+  <si>
+    <t>迟到0:31:34</t>
+  </si>
+  <si>
+    <t>迟到0:32:57</t>
+  </si>
+  <si>
+    <t>迟到0:32:30</t>
+  </si>
+  <si>
+    <t>迟到0:26:29</t>
+  </si>
+  <si>
+    <t>迟到0:25:33</t>
+  </si>
+  <si>
+    <t>迟到0:28:03</t>
+  </si>
+  <si>
+    <t>迟到0:35:22</t>
+  </si>
+  <si>
+    <t>迟到0:30:43</t>
   </si>
   <si>
     <t>20214227026</t>
@@ -985,6 +1060,9 @@
     <t>迟到0:22:07</t>
   </si>
   <si>
+    <t>迟到0:22:25</t>
+  </si>
+  <si>
     <t>迟到0:19:25</t>
   </si>
   <si>
@@ -1141,6 +1219,9 @@
     <t>迟到0:23:02</t>
   </si>
   <si>
+    <t>迟到0:37:33</t>
+  </si>
+  <si>
     <t>迟到0:16:10</t>
   </si>
   <si>
@@ -1177,6 +1258,9 @@
     <t>迟到0:26:25</t>
   </si>
   <si>
+    <t>迟到0:19:26</t>
+  </si>
+  <si>
     <t>迟到0:18:51</t>
   </si>
   <si>
@@ -1255,9 +1339,6 @@
     <t>迟到0:28:33</t>
   </si>
   <si>
-    <t>迟到0:25:33</t>
-  </si>
-  <si>
     <t>迟到0:15:56</t>
   </si>
   <si>
@@ -1312,9 +1393,6 @@
     <t>迟到0:31:07</t>
   </si>
   <si>
-    <t>迟到0:30:43</t>
-  </si>
-  <si>
     <t>迟到0:02:44</t>
   </si>
   <si>
@@ -1375,6 +1453,15 @@
     <t>迟到0:40:14</t>
   </si>
   <si>
+    <t>迟到0:26:56</t>
+  </si>
+  <si>
+    <t>迟到0:21:43</t>
+  </si>
+  <si>
+    <t>迟到0:20:40</t>
+  </si>
+  <si>
     <t>迟到1:02:52</t>
   </si>
   <si>
@@ -1474,6 +1561,12 @@
     <t>邢小林</t>
   </si>
   <si>
+    <t>迟到0:37:30</t>
+  </si>
+  <si>
+    <t>迟到0:35:46</t>
+  </si>
+  <si>
     <t>迟到0:33:37</t>
   </si>
   <si>
@@ -1573,9 +1666,6 @@
     <t>张新浪</t>
   </si>
   <si>
-    <t>迟到0:32:57</t>
-  </si>
-  <si>
     <t>迟到0:33:05</t>
   </si>
   <si>
@@ -1615,6 +1705,9 @@
     <t>迟到0:31:17</t>
   </si>
   <si>
+    <t>迟到0:38:00</t>
+  </si>
+  <si>
     <t>迟到0:12:39</t>
   </si>
   <si>
@@ -1684,9 +1777,6 @@
     <t>迟到0:21:32</t>
   </si>
   <si>
-    <t>迟到0:35:22</t>
-  </si>
-  <si>
     <t>迟到0:28:07</t>
   </si>
   <si>
@@ -1753,6 +1843,9 @@
     <t>迟到0:38:05</t>
   </si>
   <si>
+    <t>迟到0:34:00</t>
+  </si>
+  <si>
     <t>迟到0:37:38</t>
   </si>
   <si>
@@ -2047,9 +2140,6 @@
     <t>迟到0:13:55</t>
   </si>
   <si>
-    <t>迟到0:21:43</t>
-  </si>
-  <si>
     <t>迟到0:19:48</t>
   </si>
   <si>
@@ -2218,9 +2308,6 @@
     <t>迟到0:34:49</t>
   </si>
   <si>
-    <t>迟到0:26:56</t>
-  </si>
-  <si>
     <t>迟到0:26:21</t>
   </si>
   <si>
@@ -2299,9 +2386,6 @@
     <t>迟到0:30:16</t>
   </si>
   <si>
-    <t>迟到0:35:46</t>
-  </si>
-  <si>
     <t>迟到0:37:23</t>
   </si>
   <si>
@@ -2335,9 +2419,6 @@
     <t>迟到0:39:16</t>
   </si>
   <si>
-    <t>迟到0:32:26</t>
-  </si>
-  <si>
     <t>迟到0:33:35</t>
   </si>
   <si>
@@ -2494,9 +2575,6 @@
     <t>迟到0:19:35</t>
   </si>
   <si>
-    <t>迟到0:19:26</t>
-  </si>
-  <si>
     <t>迟到0:22:46</t>
   </si>
   <si>
@@ -2515,9 +2593,6 @@
     <t>迟到0:23:01</t>
   </si>
   <si>
-    <t>迟到0:26:29</t>
-  </si>
-  <si>
     <t>迟到0:24:33</t>
   </si>
   <si>
@@ -2608,9 +2683,6 @@
     <t>迟到0:40:34</t>
   </si>
   <si>
-    <t>迟到0:35:03</t>
-  </si>
-  <si>
     <t>迟到0:39:49</t>
   </si>
   <si>
@@ -2683,9 +2755,6 @@
     <t>迟到0:30:57</t>
   </si>
   <si>
-    <t>迟到0:21:00</t>
-  </si>
-  <si>
     <t>迟到0:46:42</t>
   </si>
   <si>
@@ -2791,6 +2860,9 @@
     <t>迟到0:23:04</t>
   </si>
   <si>
+    <t>迟到0:18:52</t>
+  </si>
+  <si>
     <t>迟到0:19:32</t>
   </si>
   <si>
@@ -2935,9 +3007,24 @@
     <t>迟到0:21:07</t>
   </si>
   <si>
+    <t>迟到0:19:20</t>
+  </si>
+  <si>
     <t>迟到1:14:01</t>
   </si>
   <si>
+    <t>迟到0:22:42</t>
+  </si>
+  <si>
+    <t>迟到0:22:30</t>
+  </si>
+  <si>
+    <t>迟到0:22:51</t>
+  </si>
+  <si>
+    <t>迟到0:10:30</t>
+  </si>
+  <si>
     <t>20215227111</t>
   </si>
   <si>
@@ -3065,9 +3152,6 @@
   </si>
   <si>
     <t>迟到0:24:24</t>
-  </si>
-  <si>
-    <t>迟到0:22:51</t>
   </si>
   <si>
     <t>迟到0:23:58</t>
@@ -3165,9 +3249,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -3186,7 +3270,51 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3201,28 +3329,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3231,6 +3338,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3245,33 +3360,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3283,9 +3374,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3308,31 +3398,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3345,7 +3429,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3357,7 +3447,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3369,7 +3471,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3381,67 +3525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3453,25 +3537,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3489,19 +3561,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3513,19 +3579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3536,6 +3620,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3550,15 +3669,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3581,23 +3691,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3616,173 +3720,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4113,8 +4197,8 @@
   <sheetPr/>
   <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25"/>
@@ -4265,164 +4349,164 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
         <v>11</v>
       </c>
       <c r="N3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
         <v>8</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" t="s">
-        <v>49</v>
-      </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M5" t="s">
         <v>11</v>
       </c>
       <c r="N5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
         <v>8</v>
@@ -4430,155 +4514,155 @@
     </row>
     <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M6" t="s">
         <v>11</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s">
         <v>8</v>
       </c>
       <c r="Q6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M7" t="s">
         <v>11</v>
       </c>
       <c r="N7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P7" t="s">
         <v>8</v>
       </c>
       <c r="Q7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L8" t="s">
         <v>11</v>
@@ -4590,7 +4674,7 @@
         <v>11</v>
       </c>
       <c r="O8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P8" t="s">
         <v>11</v>
@@ -4599,7 +4683,7 @@
         <v>11</v>
       </c>
       <c r="R8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="S8" t="s">
         <v>11</v>
@@ -4607,117 +4691,117 @@
     </row>
     <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M9" t="s">
         <v>11</v>
       </c>
       <c r="N9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="R9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H10" t="s">
         <v>11</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
         <v>8</v>
       </c>
       <c r="L10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s">
         <v>11</v>
       </c>
       <c r="N10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="S10" t="s">
         <v>8</v>
@@ -4725,202 +4809,202 @@
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="J11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M11" t="s">
         <v>11</v>
       </c>
       <c r="N11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="S11" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="I12" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="J12" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M12" t="s">
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="P12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="R12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="S12" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>177</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>8</v>
+        <v>179</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>181</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>182</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
       </c>
       <c r="J13" t="s">
-        <v>8</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="L13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M13" t="s">
         <v>8</v>
       </c>
       <c r="N13" t="s">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="O13" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="P13" t="s">
-        <v>8</v>
+        <v>186</v>
       </c>
       <c r="Q13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="R13" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="S13" t="s">
-        <v>8</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="2" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="F14" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="G14" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H14" t="s">
         <v>11</v>
@@ -4929,10 +5013,10 @@
         <v>8</v>
       </c>
       <c r="J14" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="K14" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="L14" t="s">
         <v>8</v>
@@ -4941,7 +5025,7 @@
         <v>11</v>
       </c>
       <c r="N14" t="s">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="O14" t="s">
         <v>8</v>
@@ -4950,104 +5034,104 @@
         <v>8</v>
       </c>
       <c r="Q14" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="R14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
-        <v>8</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="2" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="G15" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="H15" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="I15" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M15" t="s">
         <v>11</v>
       </c>
       <c r="N15" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="O15" t="s">
         <v>11</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="Q15" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="R15" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="S15" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="2" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="E16" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="F16" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="G16" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="H16" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="I16" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="J16" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K16" t="s">
         <v>8</v>
@@ -5059,255 +5143,255 @@
         <v>11</v>
       </c>
       <c r="N16" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="O16" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="P16" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="Q16" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="R16" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="S16" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="F17" t="s">
-        <v>8</v>
+        <v>232</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>233</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
       </c>
       <c r="J17" t="s">
-        <v>8</v>
+        <v>234</v>
       </c>
       <c r="K17" t="s">
-        <v>8</v>
+        <v>235</v>
       </c>
       <c r="L17" t="s">
-        <v>8</v>
+        <v>236</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N17" t="s">
-        <v>8</v>
+        <v>237</v>
       </c>
       <c r="O17" t="s">
-        <v>8</v>
+        <v>238</v>
       </c>
       <c r="P17" t="s">
-        <v>8</v>
+        <v>239</v>
       </c>
       <c r="Q17" t="s">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="R17" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
       <c r="S17" t="s">
-        <v>8</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="C18" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D18" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="E18" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G18" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="H18" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="J18" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K18" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L18" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="M18" t="s">
         <v>11</v>
       </c>
       <c r="N18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="Q18" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="R18" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="S18" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="2" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="C19" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="D19" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="F19" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G19" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="H19" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="I19" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="J19" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K19" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L19" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
       </c>
       <c r="N19" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="O19" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="P19" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="Q19" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="R19" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="S19" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="2" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F20" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="G20" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="H20" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="I20" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="J20" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="K20" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s">
         <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="O20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q20" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="R20" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="S20" t="s">
         <v>8</v>
@@ -5315,37 +5399,37 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="2" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="G21" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="H21" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="I21" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="J21" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="L21" t="s">
         <v>11</v>
@@ -5354,78 +5438,78 @@
         <v>11</v>
       </c>
       <c r="N21" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="O21" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="P21" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="Q21" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="R21" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="S21" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:19">
       <c r="A22" s="2" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="G22" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="H22" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
       </c>
       <c r="J22" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="L22" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="M22" t="s">
         <v>11</v>
       </c>
       <c r="N22" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="O22" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="P22" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="Q22" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="R22" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="S22" t="s">
         <v>8</v>
@@ -5433,143 +5517,143 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="2" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="C23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D23" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="E23" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="F23" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
       <c r="G23" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="H23" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J23" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="K23" t="s">
         <v>8</v>
       </c>
       <c r="L23" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="M23" t="s">
         <v>11</v>
       </c>
       <c r="N23" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="O23" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="P23" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="Q23" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="R23" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="S23" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="2" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C24" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D24" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="E24" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="F24" t="s">
-        <v>310</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="H24" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="J24" t="s">
-        <v>149</v>
+        <v>340</v>
       </c>
       <c r="K24" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
       <c r="L24" t="s">
-        <v>11</v>
+        <v>341</v>
       </c>
       <c r="M24" t="s">
         <v>11</v>
       </c>
       <c r="N24" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="O24" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="P24" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="Q24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="R24" t="s">
-        <v>317</v>
+        <v>57</v>
       </c>
       <c r="S24" t="s">
-        <v>318</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="2" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="C25" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="D25" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="E25" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>348</v>
       </c>
       <c r="H25" t="s">
         <v>8</v>
@@ -5578,31 +5662,31 @@
         <v>8</v>
       </c>
       <c r="J25" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="K25" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="L25" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="M25" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="N25" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="O25" t="s">
-        <v>327</v>
+        <v>353</v>
       </c>
       <c r="P25" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="Q25" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="R25" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="S25" t="s">
         <v>8</v>
@@ -5610,117 +5694,117 @@
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="2" t="s">
-        <v>330</v>
+        <v>356</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="D26" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="E26" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="F26" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G26" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="H26" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
       </c>
       <c r="J26" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="K26" t="s">
         <v>8</v>
       </c>
       <c r="L26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M26" t="s">
         <v>11</v>
       </c>
       <c r="N26" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
       <c r="O26" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="P26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q26" t="s">
-        <v>340</v>
+        <v>366</v>
       </c>
       <c r="R26" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="S26" t="s">
-        <v>342</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:19">
       <c r="A27" s="2" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>344</v>
+        <v>370</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
       </c>
       <c r="D27" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="E27" t="s">
         <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>345</v>
+        <v>371</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="H27" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="I27" t="s">
-        <v>348</v>
+        <v>374</v>
       </c>
       <c r="J27" t="s">
-        <v>349</v>
+        <v>375</v>
       </c>
       <c r="K27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L27" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M27" t="s">
         <v>11</v>
       </c>
       <c r="N27" t="s">
-        <v>350</v>
+        <v>376</v>
       </c>
       <c r="O27" t="s">
-        <v>351</v>
+        <v>377</v>
       </c>
       <c r="P27" t="s">
-        <v>352</v>
+        <v>378</v>
       </c>
       <c r="Q27" t="s">
         <v>11</v>
       </c>
       <c r="R27" t="s">
-        <v>353</v>
+        <v>379</v>
       </c>
       <c r="S27" t="s">
         <v>11</v>
@@ -5728,114 +5812,114 @@
     </row>
     <row r="28" spans="1:19">
       <c r="A28" s="2" t="s">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>355</v>
+        <v>381</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>356</v>
+        <v>382</v>
       </c>
       <c r="E28" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="F28" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="G28" t="s">
-        <v>359</v>
+        <v>385</v>
       </c>
       <c r="H28" t="s">
         <v>11</v>
       </c>
       <c r="I28" t="s">
-        <v>360</v>
+        <v>386</v>
       </c>
       <c r="J28" t="s">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="K28" t="s">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="L28" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="M28" t="s">
         <v>11</v>
       </c>
       <c r="N28" t="s">
-        <v>364</v>
+        <v>390</v>
       </c>
       <c r="O28" t="s">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="P28" t="s">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="Q28" t="s">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="R28" t="s">
-        <v>368</v>
+        <v>394</v>
       </c>
       <c r="S28" t="s">
-        <v>369</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="2" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C29" t="s">
-        <v>372</v>
+        <v>398</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>401</v>
       </c>
       <c r="H29" t="s">
-        <v>375</v>
+        <v>402</v>
       </c>
       <c r="I29" t="s">
-        <v>8</v>
+        <v>281</v>
       </c>
       <c r="J29" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="K29" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="L29" t="s">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
       </c>
       <c r="N29" t="s">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="O29" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="P29" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="Q29" t="s">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="R29" t="s">
         <v>6</v>
@@ -5846,235 +5930,235 @@
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C30" t="s">
+        <v>412</v>
+      </c>
+      <c r="D30" t="s">
+        <v>405</v>
+      </c>
+      <c r="E30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" t="s">
+        <v>415</v>
+      </c>
+      <c r="J30" t="s">
+        <v>416</v>
+      </c>
+      <c r="K30" t="s">
+        <v>125</v>
+      </c>
+      <c r="L30" t="s">
+        <v>417</v>
+      </c>
+      <c r="M30" t="s">
+        <v>11</v>
+      </c>
+      <c r="N30" t="s">
+        <v>418</v>
+      </c>
+      <c r="O30" t="s">
+        <v>419</v>
+      </c>
+      <c r="P30" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q30" t="s">
         <v>383</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="C30" t="s">
-        <v>385</v>
-      </c>
-      <c r="D30" t="s">
-        <v>378</v>
-      </c>
-      <c r="E30" t="s">
-        <v>386</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" t="s">
-        <v>23</v>
-      </c>
-      <c r="H30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" t="s">
-        <v>387</v>
-      </c>
-      <c r="J30" t="s">
-        <v>388</v>
-      </c>
-      <c r="K30" t="s">
-        <v>124</v>
-      </c>
-      <c r="L30" t="s">
-        <v>389</v>
-      </c>
-      <c r="M30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" t="s">
-        <v>390</v>
-      </c>
-      <c r="O30" t="s">
-        <v>391</v>
-      </c>
-      <c r="P30" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>357</v>
-      </c>
       <c r="R30" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
       <c r="S30" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="2" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>394</v>
+        <v>422</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="F31" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="G31" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="H31" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I31" t="s">
         <v>8</v>
       </c>
       <c r="J31" t="s">
-        <v>399</v>
+        <v>427</v>
       </c>
       <c r="K31" t="s">
-        <v>400</v>
+        <v>428</v>
       </c>
       <c r="L31" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="M31" t="s">
         <v>11</v>
       </c>
       <c r="N31" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="O31" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="P31" t="s">
-        <v>404</v>
+        <v>432</v>
       </c>
       <c r="Q31" t="s">
-        <v>405</v>
+        <v>433</v>
       </c>
       <c r="R31" t="s">
-        <v>406</v>
+        <v>434</v>
       </c>
       <c r="S31" t="s">
-        <v>407</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="2" t="s">
-        <v>408</v>
+        <v>436</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>409</v>
+        <v>437</v>
       </c>
       <c r="C32" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>411</v>
+        <v>439</v>
       </c>
       <c r="F32" t="s">
-        <v>412</v>
+        <v>440</v>
       </c>
       <c r="G32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I32" t="s">
-        <v>413</v>
+        <v>340</v>
       </c>
       <c r="J32" t="s">
-        <v>414</v>
+        <v>441</v>
       </c>
       <c r="K32" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="L32" t="s">
-        <v>416</v>
+        <v>443</v>
       </c>
       <c r="M32" t="s">
         <v>11</v>
       </c>
       <c r="N32" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="O32" t="s">
-        <v>418</v>
+        <v>445</v>
       </c>
       <c r="P32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q32" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="R32" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="S32" t="s">
-        <v>420</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:19">
       <c r="A33" s="2" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C33" t="s">
-        <v>423</v>
+        <v>450</v>
       </c>
       <c r="D33" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E33" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="F33" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="G33" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="H33" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="I33" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="J33" t="s">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="K33" t="s">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="L33" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="M33" t="s">
         <v>11</v>
       </c>
       <c r="N33" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="O33" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="P33" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="Q33" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="R33" t="s">
-        <v>435</v>
+        <v>461</v>
       </c>
       <c r="S33" t="s">
         <v>8</v>
@@ -6082,58 +6166,58 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="2" t="s">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>437</v>
+        <v>463</v>
       </c>
       <c r="C34" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="D34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E34" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="F34" t="s">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="G34" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="H34" t="s">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="I34" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="J34" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="K34" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="L34" t="s">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="M34" t="s">
         <v>11</v>
       </c>
       <c r="N34" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="O34" t="s">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="P34" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="Q34" t="s">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="R34" t="s">
-        <v>449</v>
+        <v>475</v>
       </c>
       <c r="S34" t="s">
         <v>8</v>
@@ -6141,84 +6225,84 @@
     </row>
     <row r="35" spans="1:19">
       <c r="A35" s="2" t="s">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>451</v>
+        <v>477</v>
       </c>
       <c r="C35" t="s">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="D35" t="s">
-        <v>8</v>
+        <v>479</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>480</v>
       </c>
       <c r="F35" t="s">
-        <v>8</v>
+        <v>481</v>
       </c>
       <c r="G35" t="s">
-        <v>453</v>
+        <v>482</v>
       </c>
       <c r="H35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
-        <v>454</v>
+        <v>483</v>
       </c>
       <c r="J35" t="s">
-        <v>455</v>
+        <v>484</v>
       </c>
       <c r="K35" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="L35" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="M35" t="s">
         <v>11</v>
       </c>
       <c r="N35" t="s">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="O35" t="s">
         <v>8</v>
       </c>
       <c r="P35" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="Q35" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="R35" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="S35" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
     </row>
     <row r="36" spans="1:19">
       <c r="A36" s="2" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
       </c>
       <c r="D36" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="E36" t="s">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
       </c>
       <c r="G36" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="H36" t="s">
         <v>11</v>
@@ -6233,22 +6317,22 @@
         <v>11</v>
       </c>
       <c r="L36" t="s">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="M36" t="s">
         <v>11</v>
       </c>
       <c r="N36" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="O36" t="s">
         <v>11</v>
       </c>
       <c r="P36" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="Q36" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="R36" t="s">
         <v>11</v>
@@ -6259,69 +6343,69 @@
     </row>
     <row r="37" spans="1:19">
       <c r="A37" s="2" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="C37" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="E37" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="H37" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="I37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J37" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="K37" t="s">
         <v>8</v>
       </c>
       <c r="L37" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="M37" t="s">
         <v>8</v>
       </c>
       <c r="N37" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="O37" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="P37" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="Q37" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="R37" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="S37" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="2" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="C38" t="s">
         <v>8</v>
@@ -6330,46 +6414,46 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>8</v>
+        <v>515</v>
       </c>
       <c r="F38" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>516</v>
       </c>
       <c r="H38" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
       </c>
       <c r="J38" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="K38" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L38" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="M38" t="s">
         <v>11</v>
       </c>
       <c r="N38" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="O38" t="s">
-        <v>8</v>
+        <v>266</v>
       </c>
       <c r="P38" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="Q38" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="R38" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="S38" t="s">
         <v>8</v>
@@ -6377,69 +6461,69 @@
     </row>
     <row r="39" spans="1:19">
       <c r="A39" s="2" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="C39" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="D39" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="E39" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="G39" t="s">
-        <v>397</v>
+        <v>425</v>
       </c>
       <c r="H39" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="I39" t="s">
         <v>8</v>
       </c>
       <c r="J39" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K39" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="L39" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M39" t="s">
         <v>11</v>
       </c>
       <c r="N39" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="O39" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="P39" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="Q39" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="R39" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="S39" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
     </row>
     <row r="40" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>504</v>
+        <v>535</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>505</v>
+        <v>536</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
@@ -6448,84 +6532,84 @@
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="F40" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="G40" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
       <c r="H40" t="s">
-        <v>509</v>
+        <v>540</v>
       </c>
       <c r="I40" t="s">
-        <v>510</v>
+        <v>541</v>
       </c>
       <c r="J40" t="s">
-        <v>511</v>
+        <v>542</v>
       </c>
       <c r="K40" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="L40" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="M40" t="s">
         <v>11</v>
       </c>
       <c r="N40" t="s">
-        <v>514</v>
+        <v>545</v>
       </c>
       <c r="O40" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="P40" t="s">
         <v>11</v>
       </c>
       <c r="Q40" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="R40" t="s">
         <v>8</v>
       </c>
       <c r="S40" t="s">
-        <v>516</v>
+        <v>547</v>
       </c>
     </row>
     <row r="41" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>517</v>
+        <v>548</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>518</v>
+        <v>549</v>
       </c>
       <c r="C41" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
       <c r="D41" t="s">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E41" t="s">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="F41" t="s">
-        <v>522</v>
+        <v>552</v>
       </c>
       <c r="G41" t="s">
-        <v>523</v>
+        <v>553</v>
       </c>
       <c r="H41" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
       </c>
       <c r="J41" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K41" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="L41" t="s">
         <v>11</v>
@@ -6534,19 +6618,19 @@
         <v>11</v>
       </c>
       <c r="N41" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="O41" t="s">
-        <v>526</v>
+        <v>556</v>
       </c>
       <c r="P41" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="Q41" t="s">
-        <v>527</v>
+        <v>557</v>
       </c>
       <c r="R41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S41" t="s">
         <v>10</v>
@@ -6554,530 +6638,530 @@
     </row>
     <row r="42" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>528</v>
+        <v>558</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>529</v>
+        <v>559</v>
       </c>
       <c r="C42" t="s">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E42" t="s">
-        <v>531</v>
+        <v>561</v>
       </c>
       <c r="F42" t="s">
-        <v>8</v>
+        <v>196</v>
       </c>
       <c r="G42" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="H42" t="s">
-        <v>8</v>
+        <v>563</v>
       </c>
       <c r="I42" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J42" t="s">
+        <v>564</v>
+      </c>
+      <c r="K42" t="s">
+        <v>565</v>
+      </c>
+      <c r="L42" t="s">
         <v>533</v>
       </c>
-      <c r="K42" t="s">
-        <v>534</v>
-      </c>
-      <c r="L42" t="s">
-        <v>502</v>
-      </c>
       <c r="M42" t="s">
         <v>11</v>
       </c>
       <c r="N42" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="O42" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="P42" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="Q42" t="s">
-        <v>536</v>
+        <v>567</v>
       </c>
       <c r="R42" t="s">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="S42" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>538</v>
+        <v>569</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>539</v>
+        <v>570</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
       </c>
       <c r="D43" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="E43" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="F43" t="s">
-        <v>541</v>
+        <v>572</v>
       </c>
       <c r="G43" t="s">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="H43" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="I43" t="s">
         <v>8</v>
       </c>
       <c r="J43" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="K43" t="s">
-        <v>545</v>
+        <v>576</v>
       </c>
       <c r="L43" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="M43" t="s">
         <v>11</v>
       </c>
       <c r="N43" t="s">
-        <v>547</v>
+        <v>578</v>
       </c>
       <c r="O43" t="s">
-        <v>548</v>
+        <v>579</v>
       </c>
       <c r="P43" t="s">
-        <v>549</v>
+        <v>580</v>
       </c>
       <c r="Q43" t="s">
-        <v>550</v>
+        <v>581</v>
       </c>
       <c r="R43" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="S43" t="s">
-        <v>551</v>
+        <v>582</v>
       </c>
     </row>
     <row r="44" spans="1:19">
       <c r="A44" s="2" t="s">
-        <v>552</v>
+        <v>583</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>553</v>
+        <v>584</v>
       </c>
       <c r="C44" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="D44" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="E44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F44" t="s">
-        <v>555</v>
+        <v>586</v>
       </c>
       <c r="G44" t="s">
-        <v>556</v>
+        <v>342</v>
       </c>
       <c r="H44" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="I44" t="s">
-        <v>557</v>
+        <v>587</v>
       </c>
       <c r="J44" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="K44" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="L44" t="s">
-        <v>559</v>
+        <v>589</v>
       </c>
       <c r="M44" t="s">
         <v>11</v>
       </c>
       <c r="N44" t="s">
-        <v>560</v>
+        <v>590</v>
       </c>
       <c r="O44" t="s">
-        <v>554</v>
+        <v>585</v>
       </c>
       <c r="P44" t="s">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="Q44" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="R44" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="S44" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
     </row>
     <row r="45" spans="1:19">
       <c r="A45" s="2" t="s">
-        <v>564</v>
+        <v>594</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>565</v>
+        <v>595</v>
       </c>
       <c r="C45" t="s">
-        <v>566</v>
+        <v>596</v>
       </c>
       <c r="D45" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="E45" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F45" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H45" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
       </c>
       <c r="J45" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="K45" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="L45" t="s">
-        <v>571</v>
+        <v>601</v>
       </c>
       <c r="M45" t="s">
         <v>11</v>
       </c>
       <c r="N45" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="O45" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="P45" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="Q45" t="s">
-        <v>573</v>
+        <v>603</v>
       </c>
       <c r="R45" t="s">
-        <v>574</v>
+        <v>604</v>
       </c>
       <c r="S45" t="s">
-        <v>575</v>
+        <v>605</v>
       </c>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" s="2" t="s">
-        <v>576</v>
+        <v>606</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>577</v>
+        <v>607</v>
       </c>
       <c r="C46" t="s">
-        <v>578</v>
+        <v>608</v>
       </c>
       <c r="D46" t="s">
-        <v>8</v>
+        <v>609</v>
       </c>
       <c r="E46" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>579</v>
+        <v>610</v>
       </c>
       <c r="G46" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="H46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="K46" t="s">
         <v>8</v>
       </c>
       <c r="L46" t="s">
-        <v>582</v>
+        <v>613</v>
       </c>
       <c r="M46" t="s">
         <v>8</v>
       </c>
       <c r="N46" t="s">
-        <v>583</v>
+        <v>614</v>
       </c>
       <c r="O46" t="s">
         <v>11</v>
       </c>
       <c r="P46" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="Q46" t="s">
-        <v>585</v>
+        <v>616</v>
       </c>
       <c r="R46" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="S46" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" s="2" t="s">
-        <v>588</v>
+        <v>619</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>589</v>
+        <v>620</v>
       </c>
       <c r="C47" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
       <c r="D47" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="E47" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
       <c r="F47" t="s">
-        <v>592</v>
+        <v>623</v>
       </c>
       <c r="G47" t="s">
-        <v>593</v>
+        <v>624</v>
       </c>
       <c r="H47" t="s">
-        <v>594</v>
+        <v>625</v>
       </c>
       <c r="I47" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="J47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>595</v>
+        <v>626</v>
       </c>
       <c r="L47" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="M47" t="s">
         <v>11</v>
       </c>
       <c r="N47" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="O47" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="P47" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="Q47" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="R47" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="S47" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" s="2" t="s">
-        <v>602</v>
+        <v>633</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="C48" t="s">
-        <v>604</v>
+        <v>635</v>
       </c>
       <c r="D48" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="E48" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="F48" t="s">
-        <v>601</v>
+        <v>632</v>
       </c>
       <c r="G48" t="s">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="H48" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="I48" t="s">
-        <v>605</v>
+        <v>636</v>
       </c>
       <c r="J48" t="s">
-        <v>606</v>
+        <v>637</v>
       </c>
       <c r="K48" t="s">
-        <v>607</v>
+        <v>638</v>
       </c>
       <c r="L48" t="s">
-        <v>608</v>
+        <v>639</v>
       </c>
       <c r="M48" t="s">
         <v>11</v>
       </c>
       <c r="N48" t="s">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="O48" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="P48" t="s">
-        <v>610</v>
+        <v>641</v>
       </c>
       <c r="Q48" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="R48" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="S48" t="s">
-        <v>612</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="2" t="s">
-        <v>613</v>
+        <v>644</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>614</v>
+        <v>645</v>
       </c>
       <c r="C49" t="s">
-        <v>615</v>
+        <v>646</v>
       </c>
       <c r="D49" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="E49" t="s">
-        <v>616</v>
+        <v>647</v>
       </c>
       <c r="F49" t="s">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="G49" t="s">
-        <v>617</v>
+        <v>648</v>
       </c>
       <c r="H49" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="I49" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="J49" t="s">
-        <v>619</v>
+        <v>650</v>
       </c>
       <c r="K49" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="L49" t="s">
-        <v>620</v>
+        <v>651</v>
       </c>
       <c r="M49" t="s">
         <v>11</v>
       </c>
       <c r="N49" t="s">
-        <v>621</v>
+        <v>652</v>
       </c>
       <c r="O49" t="s">
         <v>8</v>
       </c>
       <c r="P49" t="s">
-        <v>597</v>
+        <v>628</v>
       </c>
       <c r="Q49" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="R49" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S49" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="2" t="s">
-        <v>624</v>
+        <v>655</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>625</v>
+        <v>656</v>
       </c>
       <c r="C50" t="s">
-        <v>626</v>
+        <v>657</v>
       </c>
       <c r="D50" t="s">
-        <v>627</v>
+        <v>658</v>
       </c>
       <c r="E50" t="s">
-        <v>628</v>
+        <v>659</v>
       </c>
       <c r="F50" t="s">
-        <v>629</v>
+        <v>660</v>
       </c>
       <c r="G50" t="s">
-        <v>630</v>
+        <v>661</v>
       </c>
       <c r="H50" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="I50" t="s">
-        <v>632</v>
+        <v>663</v>
       </c>
       <c r="J50" t="s">
-        <v>633</v>
+        <v>664</v>
       </c>
       <c r="K50" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="L50" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="M50" t="s">
         <v>11</v>
       </c>
       <c r="N50" t="s">
-        <v>635</v>
+        <v>666</v>
       </c>
       <c r="O50" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="P50" t="s">
-        <v>636</v>
+        <v>667</v>
       </c>
       <c r="Q50" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="R50" t="s">
-        <v>637</v>
+        <v>668</v>
       </c>
       <c r="S50" t="s">
         <v>8</v>
@@ -7085,10 +7169,10 @@
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="2" t="s">
-        <v>638</v>
+        <v>669</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>639</v>
+        <v>670</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -7097,22 +7181,22 @@
         <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>640</v>
+        <v>671</v>
       </c>
       <c r="F51" t="s">
         <v>11</v>
       </c>
       <c r="G51" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="H51" t="s">
-        <v>642</v>
+        <v>673</v>
       </c>
       <c r="I51" t="s">
         <v>8</v>
       </c>
       <c r="J51" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="K51" t="s">
         <v>11</v>
@@ -7124,19 +7208,19 @@
         <v>8</v>
       </c>
       <c r="N51" t="s">
-        <v>644</v>
+        <v>675</v>
       </c>
       <c r="O51" t="s">
         <v>8</v>
       </c>
       <c r="P51" t="s">
-        <v>645</v>
+        <v>676</v>
       </c>
       <c r="Q51" t="s">
         <v>8</v>
       </c>
       <c r="R51" t="s">
-        <v>646</v>
+        <v>677</v>
       </c>
       <c r="S51" t="s">
         <v>8</v>
@@ -7144,69 +7228,69 @@
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="2" t="s">
-        <v>647</v>
+        <v>678</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>648</v>
+        <v>679</v>
       </c>
       <c r="C52" t="s">
         <v>11</v>
       </c>
       <c r="D52" t="s">
-        <v>649</v>
+        <v>680</v>
       </c>
       <c r="E52" t="s">
         <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="G52" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="H52" t="s">
         <v>11</v>
       </c>
       <c r="I52" t="s">
-        <v>651</v>
+        <v>682</v>
       </c>
       <c r="J52" t="s">
         <v>11</v>
       </c>
       <c r="K52" t="s">
-        <v>652</v>
+        <v>683</v>
       </c>
       <c r="L52" t="s">
-        <v>653</v>
+        <v>684</v>
       </c>
       <c r="M52" t="s">
         <v>11</v>
       </c>
       <c r="N52" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="O52" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="P52" t="s">
-        <v>655</v>
+        <v>686</v>
       </c>
       <c r="Q52" t="s">
-        <v>656</v>
+        <v>687</v>
       </c>
       <c r="R52" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="S52" t="s">
-        <v>658</v>
+        <v>689</v>
       </c>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="2" t="s">
-        <v>659</v>
+        <v>690</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>660</v>
+        <v>691</v>
       </c>
       <c r="C53" t="s">
         <v>11</v>
@@ -7218,261 +7302,261 @@
         <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>661</v>
+        <v>692</v>
       </c>
       <c r="G53" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="H53" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="I53" t="s">
-        <v>662</v>
+        <v>693</v>
       </c>
       <c r="J53" t="s">
-        <v>663</v>
+        <v>694</v>
       </c>
       <c r="K53" t="s">
-        <v>664</v>
+        <v>695</v>
       </c>
       <c r="L53" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="M53" t="s">
         <v>11</v>
       </c>
       <c r="N53" t="s">
-        <v>666</v>
+        <v>697</v>
       </c>
       <c r="O53" t="s">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="P53" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Q53" t="s">
-        <v>668</v>
+        <v>699</v>
       </c>
       <c r="R53" t="s">
-        <v>669</v>
+        <v>700</v>
       </c>
       <c r="S53" t="s">
-        <v>670</v>
+        <v>701</v>
       </c>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="2" t="s">
-        <v>671</v>
+        <v>702</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>672</v>
+        <v>703</v>
       </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="s">
-        <v>673</v>
+        <v>704</v>
       </c>
       <c r="E54" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="F54" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="H54" t="s">
-        <v>675</v>
+        <v>706</v>
       </c>
       <c r="I54" t="s">
-        <v>676</v>
+        <v>707</v>
       </c>
       <c r="J54" t="s">
         <v>11</v>
       </c>
       <c r="K54" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="L54" t="s">
-        <v>677</v>
+        <v>480</v>
       </c>
       <c r="M54" t="s">
         <v>11</v>
       </c>
       <c r="N54" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O54" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="P54" t="s">
-        <v>679</v>
+        <v>709</v>
       </c>
       <c r="Q54" t="s">
-        <v>680</v>
+        <v>710</v>
       </c>
       <c r="R54" t="s">
-        <v>386</v>
+        <v>413</v>
       </c>
       <c r="S54" t="s">
-        <v>681</v>
+        <v>711</v>
       </c>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="2" t="s">
-        <v>682</v>
+        <v>712</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>683</v>
+        <v>713</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="E55" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="F55" t="s">
-        <v>686</v>
+        <v>716</v>
       </c>
       <c r="G55" t="s">
-        <v>556</v>
+        <v>342</v>
       </c>
       <c r="H55" t="s">
         <v>11</v>
       </c>
       <c r="I55" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="J55" t="s">
         <v>11</v>
       </c>
       <c r="K55" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="L55" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="M55" t="s">
         <v>11</v>
       </c>
       <c r="N55" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="O55" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="P55" t="s">
-        <v>689</v>
+        <v>719</v>
       </c>
       <c r="Q55" t="s">
-        <v>690</v>
+        <v>720</v>
       </c>
       <c r="R55" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="S55" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="2" t="s">
-        <v>693</v>
+        <v>723</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>694</v>
+        <v>724</v>
       </c>
       <c r="C56" t="s">
-        <v>695</v>
+        <v>725</v>
       </c>
       <c r="D56" t="s">
-        <v>641</v>
+        <v>672</v>
       </c>
       <c r="E56" t="s">
-        <v>696</v>
+        <v>726</v>
       </c>
       <c r="F56" t="s">
-        <v>587</v>
+        <v>618</v>
       </c>
       <c r="G56" t="s">
-        <v>697</v>
+        <v>727</v>
       </c>
       <c r="H56" t="s">
-        <v>698</v>
+        <v>728</v>
       </c>
       <c r="I56" t="s">
-        <v>699</v>
+        <v>729</v>
       </c>
       <c r="J56" t="s">
-        <v>700</v>
+        <v>730</v>
       </c>
       <c r="K56" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="L56" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s">
         <v>11</v>
       </c>
       <c r="N56" t="s">
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="O56" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="P56" t="s">
-        <v>703</v>
+        <v>733</v>
       </c>
       <c r="Q56" t="s">
-        <v>702</v>
+        <v>732</v>
       </c>
       <c r="R56" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="S56" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="2" t="s">
-        <v>705</v>
+        <v>735</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>706</v>
+        <v>736</v>
       </c>
       <c r="C57" t="s">
-        <v>707</v>
+        <v>737</v>
       </c>
       <c r="D57" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="E57" t="s">
-        <v>708</v>
+        <v>738</v>
       </c>
       <c r="F57" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="G57" t="s">
-        <v>710</v>
+        <v>740</v>
       </c>
       <c r="H57" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="I57" t="s">
-        <v>712</v>
+        <v>742</v>
       </c>
       <c r="J57" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="K57" t="s">
         <v>11</v>
       </c>
       <c r="L57" t="s">
-        <v>714</v>
+        <v>744</v>
       </c>
       <c r="M57" t="s">
         <v>11</v>
@@ -7481,145 +7565,145 @@
         <v>11</v>
       </c>
       <c r="O57" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="P57" t="s">
-        <v>716</v>
+        <v>746</v>
       </c>
       <c r="Q57" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="R57" t="s">
         <v>11</v>
       </c>
       <c r="S57" t="s">
-        <v>717</v>
+        <v>747</v>
       </c>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="2" t="s">
-        <v>718</v>
+        <v>748</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>719</v>
+        <v>749</v>
       </c>
       <c r="C58" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="D58" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="E58" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="F58" t="s">
-        <v>723</v>
+        <v>753</v>
       </c>
       <c r="G58" t="s">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>720</v>
+        <v>750</v>
       </c>
       <c r="I58" t="s">
-        <v>724</v>
+        <v>754</v>
       </c>
       <c r="J58" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="K58" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="L58" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M58" t="s">
         <v>11</v>
       </c>
       <c r="N58" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="O58" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="P58" t="s">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="Q58" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="R58" t="s">
-        <v>727</v>
+        <v>757</v>
       </c>
       <c r="S58" t="s">
-        <v>728</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="2" t="s">
-        <v>729</v>
+        <v>759</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>730</v>
+        <v>760</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="D59" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="E59" t="s">
-        <v>732</v>
+        <v>762</v>
       </c>
       <c r="F59" t="s">
-        <v>733</v>
+        <v>763</v>
       </c>
       <c r="G59" t="s">
-        <v>447</v>
+        <v>473</v>
       </c>
       <c r="H59" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="I59" t="s">
-        <v>734</v>
+        <v>479</v>
       </c>
       <c r="J59" t="s">
-        <v>735</v>
+        <v>764</v>
       </c>
       <c r="K59" t="s">
-        <v>736</v>
+        <v>765</v>
       </c>
       <c r="L59" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="M59" t="s">
         <v>11</v>
       </c>
       <c r="N59" t="s">
-        <v>737</v>
+        <v>766</v>
       </c>
       <c r="O59" t="s">
-        <v>738</v>
+        <v>767</v>
       </c>
       <c r="P59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q59" t="s">
-        <v>622</v>
+        <v>653</v>
       </c>
       <c r="R59" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="S59" t="s">
-        <v>740</v>
+        <v>769</v>
       </c>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="2" t="s">
-        <v>741</v>
+        <v>770</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>742</v>
+        <v>771</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
@@ -7628,323 +7712,323 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>743</v>
+        <v>772</v>
       </c>
       <c r="F60" t="s">
-        <v>744</v>
+        <v>773</v>
       </c>
       <c r="G60" t="s">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="H60" t="s">
-        <v>745</v>
+        <v>774</v>
       </c>
       <c r="I60" t="s">
-        <v>746</v>
+        <v>775</v>
       </c>
       <c r="J60" t="s">
-        <v>747</v>
+        <v>776</v>
       </c>
       <c r="K60" t="s">
         <v>8</v>
       </c>
       <c r="L60" t="s">
-        <v>748</v>
+        <v>777</v>
       </c>
       <c r="M60" t="s">
         <v>11</v>
       </c>
       <c r="N60" t="s">
-        <v>749</v>
+        <v>778</v>
       </c>
       <c r="O60" t="s">
-        <v>558</v>
+        <v>588</v>
       </c>
       <c r="P60" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="Q60" t="s">
         <v>8</v>
       </c>
       <c r="R60" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="S60" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="2" t="s">
-        <v>751</v>
+        <v>780</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>752</v>
+        <v>781</v>
       </c>
       <c r="C61" t="s">
-        <v>753</v>
+        <v>782</v>
       </c>
       <c r="D61" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E61" t="s">
-        <v>754</v>
+        <v>783</v>
       </c>
       <c r="F61" t="s">
-        <v>755</v>
+        <v>784</v>
       </c>
       <c r="G61" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="H61" t="s">
-        <v>731</v>
+        <v>761</v>
       </c>
       <c r="I61" t="s">
-        <v>757</v>
+        <v>786</v>
       </c>
       <c r="J61" t="s">
-        <v>758</v>
+        <v>787</v>
       </c>
       <c r="K61" t="s">
         <v>8</v>
       </c>
       <c r="L61" t="s">
-        <v>759</v>
+        <v>788</v>
       </c>
       <c r="M61" t="s">
         <v>11</v>
       </c>
       <c r="N61" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="O61" t="s">
-        <v>760</v>
+        <v>789</v>
       </c>
       <c r="P61" t="s">
-        <v>761</v>
+        <v>516</v>
       </c>
       <c r="Q61" t="s">
-        <v>762</v>
+        <v>790</v>
       </c>
       <c r="R61" t="s">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="S61" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="2" t="s">
-        <v>763</v>
+        <v>791</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>764</v>
+        <v>792</v>
       </c>
       <c r="C62" t="s">
-        <v>765</v>
+        <v>793</v>
       </c>
       <c r="D62" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
       <c r="E62" t="s">
-        <v>766</v>
+        <v>794</v>
       </c>
       <c r="F62" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="G62" t="s">
-        <v>726</v>
+        <v>756</v>
       </c>
       <c r="H62" t="s">
-        <v>339</v>
+        <v>365</v>
       </c>
       <c r="I62" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="J62" t="s">
-        <v>544</v>
+        <v>575</v>
       </c>
       <c r="K62" t="s">
-        <v>767</v>
+        <v>795</v>
       </c>
       <c r="L62" t="s">
-        <v>768</v>
+        <v>796</v>
       </c>
       <c r="M62" t="s">
         <v>11</v>
       </c>
       <c r="N62" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="O62" t="s">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="P62" t="s">
-        <v>769</v>
+        <v>797</v>
       </c>
       <c r="Q62" t="s">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="R62" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="S62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="2" t="s">
-        <v>770</v>
+        <v>798</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>771</v>
+        <v>799</v>
       </c>
       <c r="C63" t="s">
-        <v>772</v>
+        <v>800</v>
       </c>
       <c r="D63" t="s">
-        <v>773</v>
+        <v>192</v>
       </c>
       <c r="E63" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="F63" t="s">
-        <v>721</v>
+        <v>751</v>
       </c>
       <c r="G63" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H63" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="I63" t="s">
         <v>8</v>
       </c>
       <c r="J63" t="s">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="K63" t="s">
         <v>8</v>
       </c>
       <c r="L63" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="M63" t="s">
         <v>11</v>
       </c>
       <c r="N63" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="O63" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="P63" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="Q63" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="R63" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="S63" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="2" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="C64" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
       <c r="D64" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="E64" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="F64" t="s">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="G64" t="s">
-        <v>561</v>
+        <v>591</v>
       </c>
       <c r="H64" t="s">
-        <v>667</v>
+        <v>698</v>
       </c>
       <c r="I64" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="J64" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="K64" t="s">
-        <v>563</v>
+        <v>593</v>
       </c>
       <c r="L64" t="s">
-        <v>788</v>
+        <v>815</v>
       </c>
       <c r="M64" t="s">
         <v>11</v>
       </c>
       <c r="N64" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="O64" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P64" t="s">
-        <v>789</v>
+        <v>816</v>
       </c>
       <c r="Q64" t="s">
-        <v>790</v>
+        <v>817</v>
       </c>
       <c r="R64" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="S64" t="s">
-        <v>791</v>
+        <v>818</v>
       </c>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="2" t="s">
-        <v>792</v>
+        <v>819</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>793</v>
+        <v>820</v>
       </c>
       <c r="C65" t="s">
-        <v>317</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>794</v>
+        <v>821</v>
       </c>
       <c r="E65" t="s">
-        <v>795</v>
+        <v>822</v>
       </c>
       <c r="F65" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="G65" t="s">
-        <v>796</v>
+        <v>823</v>
       </c>
       <c r="H65" t="s">
-        <v>797</v>
+        <v>824</v>
       </c>
       <c r="I65" t="s">
         <v>8</v>
       </c>
       <c r="J65" t="s">
-        <v>798</v>
+        <v>825</v>
       </c>
       <c r="K65" t="s">
         <v>8</v>
       </c>
       <c r="L65" t="s">
-        <v>799</v>
+        <v>826</v>
       </c>
       <c r="M65" t="s">
         <v>8</v>
@@ -7956,10 +8040,10 @@
         <v>8</v>
       </c>
       <c r="P65" t="s">
-        <v>598</v>
+        <v>629</v>
       </c>
       <c r="Q65" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
       <c r="R65" t="s">
         <v>8</v>
@@ -7970,58 +8054,58 @@
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="2" t="s">
-        <v>801</v>
+        <v>828</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>802</v>
+        <v>829</v>
       </c>
       <c r="C66" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="D66" t="s">
-        <v>739</v>
+        <v>768</v>
       </c>
       <c r="E66" t="s">
-        <v>803</v>
+        <v>830</v>
       </c>
       <c r="F66" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="G66" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
       <c r="H66" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="I66" t="s">
         <v>8</v>
       </c>
       <c r="J66" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="K66" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L66" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
       <c r="M66" t="s">
         <v>11</v>
       </c>
       <c r="N66" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="O66" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="P66" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="Q66" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="R66" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="S66" t="s">
         <v>11</v>
@@ -8029,52 +8113,52 @@
     </row>
     <row r="67" spans="1:19">
       <c r="A67" s="2" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
       <c r="C67" t="s">
         <v>11</v>
       </c>
       <c r="D67" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="E67" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="F67" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="G67" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="H67" t="s">
         <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="J67" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="K67" t="s">
         <v>8</v>
       </c>
       <c r="L67" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
       <c r="M67" t="s">
         <v>11</v>
       </c>
       <c r="N67" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="O67" t="s">
         <v>11</v>
       </c>
       <c r="P67" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="Q67" t="s">
         <v>11</v>
@@ -8083,92 +8167,92 @@
         <v>11</v>
       </c>
       <c r="S67" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
     </row>
     <row r="68" spans="1:19">
       <c r="A68" s="2" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="C68" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="E68" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="F68" t="s">
-        <v>826</v>
+        <v>414</v>
       </c>
       <c r="G68" t="s">
-        <v>827</v>
+        <v>853</v>
       </c>
       <c r="H68" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I68" t="s">
-        <v>828</v>
+        <v>854</v>
       </c>
       <c r="J68" t="s">
-        <v>829</v>
+        <v>855</v>
       </c>
       <c r="K68" t="s">
-        <v>830</v>
+        <v>856</v>
       </c>
       <c r="L68" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="M68" t="s">
         <v>11</v>
       </c>
       <c r="N68" t="s">
-        <v>831</v>
+        <v>857</v>
       </c>
       <c r="O68" t="s">
-        <v>832</v>
+        <v>858</v>
       </c>
       <c r="P68" t="s">
-        <v>833</v>
+        <v>339</v>
       </c>
       <c r="Q68" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="R68" t="s">
-        <v>834</v>
+        <v>859</v>
       </c>
       <c r="S68" t="s">
-        <v>835</v>
+        <v>860</v>
       </c>
     </row>
     <row r="69" spans="1:19">
       <c r="A69" s="2" t="s">
-        <v>836</v>
+        <v>861</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
       <c r="C69" t="s">
         <v>8</v>
       </c>
       <c r="D69" t="s">
-        <v>838</v>
+        <v>863</v>
       </c>
       <c r="E69" t="s">
-        <v>839</v>
+        <v>864</v>
       </c>
       <c r="F69" t="s">
-        <v>840</v>
+        <v>865</v>
       </c>
       <c r="G69" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H69" t="s">
-        <v>841</v>
+        <v>866</v>
       </c>
       <c r="I69" t="s">
         <v>8</v>
@@ -8177,160 +8261,160 @@
         <v>11</v>
       </c>
       <c r="K69" t="s">
-        <v>787</v>
+        <v>814</v>
       </c>
       <c r="L69" t="s">
-        <v>842</v>
+        <v>867</v>
       </c>
       <c r="M69" t="s">
         <v>11</v>
       </c>
       <c r="N69" t="s">
-        <v>843</v>
+        <v>868</v>
       </c>
       <c r="O69" t="s">
-        <v>844</v>
+        <v>869</v>
       </c>
       <c r="P69" t="s">
-        <v>845</v>
+        <v>870</v>
       </c>
       <c r="Q69" t="s">
-        <v>846</v>
+        <v>871</v>
       </c>
       <c r="R69" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="S69" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
     </row>
     <row r="70" spans="1:19">
       <c r="A70" s="2" t="s">
-        <v>849</v>
+        <v>874</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>850</v>
+        <v>875</v>
       </c>
       <c r="C70" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="D70" t="s">
-        <v>851</v>
+        <v>876</v>
       </c>
       <c r="E70" t="s">
-        <v>852</v>
+        <v>877</v>
       </c>
       <c r="F70" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G70" t="s">
-        <v>853</v>
+        <v>878</v>
       </c>
       <c r="H70" t="s">
-        <v>623</v>
+        <v>654</v>
       </c>
       <c r="I70" t="s">
         <v>8</v>
       </c>
       <c r="J70" t="s">
-        <v>854</v>
+        <v>879</v>
       </c>
       <c r="K70" t="s">
         <v>11</v>
       </c>
       <c r="L70" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="M70" t="s">
         <v>11</v>
       </c>
       <c r="N70" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="O70" t="s">
-        <v>562</v>
+        <v>592</v>
       </c>
       <c r="P70" t="s">
-        <v>856</v>
+        <v>881</v>
       </c>
       <c r="Q70" t="s">
-        <v>855</v>
+        <v>880</v>
       </c>
       <c r="R70" t="s">
-        <v>857</v>
+        <v>882</v>
       </c>
       <c r="S70" t="s">
-        <v>858</v>
+        <v>883</v>
       </c>
     </row>
     <row r="71" spans="1:19">
       <c r="A71" s="2" t="s">
-        <v>859</v>
+        <v>884</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>860</v>
+        <v>885</v>
       </c>
       <c r="C71" t="s">
-        <v>861</v>
+        <v>886</v>
       </c>
       <c r="D71" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="E71" t="s">
-        <v>862</v>
+        <v>887</v>
       </c>
       <c r="F71" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="G71" t="s">
-        <v>863</v>
+        <v>888</v>
       </c>
       <c r="H71" t="s">
-        <v>711</v>
+        <v>741</v>
       </c>
       <c r="I71" t="s">
         <v>8</v>
       </c>
       <c r="J71" t="s">
-        <v>864</v>
+        <v>20</v>
       </c>
       <c r="K71" t="s">
         <v>8</v>
       </c>
       <c r="L71" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
       <c r="M71" t="s">
         <v>11</v>
       </c>
       <c r="N71" t="s">
-        <v>865</v>
+        <v>889</v>
       </c>
       <c r="O71" t="s">
         <v>8</v>
       </c>
       <c r="P71" t="s">
-        <v>866</v>
+        <v>890</v>
       </c>
       <c r="Q71" t="s">
-        <v>867</v>
+        <v>891</v>
       </c>
       <c r="R71" t="s">
-        <v>868</v>
+        <v>892</v>
       </c>
       <c r="S71" t="s">
-        <v>591</v>
+        <v>622</v>
       </c>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="2" t="s">
-        <v>869</v>
+        <v>893</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>870</v>
+        <v>894</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
@@ -8339,491 +8423,491 @@
         <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>871</v>
+        <v>895</v>
       </c>
       <c r="G72" t="s">
         <v>11</v>
       </c>
       <c r="H72" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="I72" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="J72" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="K72" t="s">
-        <v>873</v>
+        <v>897</v>
       </c>
       <c r="L72" t="s">
-        <v>874</v>
+        <v>898</v>
       </c>
       <c r="M72" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="N72" t="s">
-        <v>875</v>
+        <v>899</v>
       </c>
       <c r="O72" t="s">
-        <v>876</v>
+        <v>900</v>
       </c>
       <c r="P72" t="s">
-        <v>877</v>
+        <v>901</v>
       </c>
       <c r="Q72" t="s">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="R72" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="S72" t="s">
-        <v>878</v>
+        <v>902</v>
       </c>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="2" t="s">
-        <v>879</v>
+        <v>903</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>880</v>
+        <v>904</v>
       </c>
       <c r="C73" t="s">
-        <v>881</v>
+        <v>905</v>
       </c>
       <c r="D73" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="E73" t="s">
         <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>882</v>
+        <v>906</v>
       </c>
       <c r="G73" t="s">
-        <v>883</v>
+        <v>907</v>
       </c>
       <c r="H73" t="s">
-        <v>884</v>
+        <v>908</v>
       </c>
       <c r="I73" t="s">
         <v>8</v>
       </c>
       <c r="J73" t="s">
-        <v>885</v>
+        <v>909</v>
       </c>
       <c r="K73" t="s">
-        <v>886</v>
+        <v>910</v>
       </c>
       <c r="L73" t="s">
-        <v>887</v>
+        <v>911</v>
       </c>
       <c r="M73" t="s">
         <v>11</v>
       </c>
       <c r="N73" t="s">
-        <v>725</v>
+        <v>755</v>
       </c>
       <c r="O73" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="P73" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="Q73" t="s">
-        <v>415</v>
+        <v>442</v>
       </c>
       <c r="R73" t="s">
-        <v>889</v>
+        <v>237</v>
       </c>
       <c r="S73" t="s">
-        <v>890</v>
+        <v>913</v>
       </c>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="2" t="s">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>892</v>
+        <v>915</v>
       </c>
       <c r="C74" t="s">
         <v>11</v>
       </c>
       <c r="D74" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="E74" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F74" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G74" t="s">
-        <v>893</v>
+        <v>916</v>
       </c>
       <c r="H74" t="s">
-        <v>398</v>
+        <v>426</v>
       </c>
       <c r="I74" t="s">
-        <v>894</v>
+        <v>917</v>
       </c>
       <c r="J74" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="K74" t="s">
-        <v>895</v>
+        <v>918</v>
       </c>
       <c r="L74" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M74" t="s">
         <v>11</v>
       </c>
       <c r="N74" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="O74" t="s">
-        <v>896</v>
+        <v>919</v>
       </c>
       <c r="P74" t="s">
-        <v>897</v>
+        <v>920</v>
       </c>
       <c r="Q74" t="s">
-        <v>898</v>
+        <v>921</v>
       </c>
       <c r="R74" t="s">
         <v>11</v>
       </c>
       <c r="S74" t="s">
-        <v>848</v>
+        <v>873</v>
       </c>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="2" t="s">
-        <v>899</v>
+        <v>922</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>900</v>
+        <v>923</v>
       </c>
       <c r="C75" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="D75" t="s">
-        <v>902</v>
+        <v>925</v>
       </c>
       <c r="E75" t="s">
-        <v>903</v>
+        <v>926</v>
       </c>
       <c r="F75" t="s">
-        <v>904</v>
+        <v>927</v>
       </c>
       <c r="G75" t="s">
-        <v>905</v>
+        <v>928</v>
       </c>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s">
-        <v>906</v>
+        <v>929</v>
       </c>
       <c r="J75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K75" t="s">
-        <v>907</v>
+        <v>930</v>
       </c>
       <c r="L75" t="s">
-        <v>515</v>
+        <v>546</v>
       </c>
       <c r="M75" t="s">
         <v>11</v>
       </c>
       <c r="N75" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="O75" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="P75" t="s">
-        <v>556</v>
+        <v>342</v>
       </c>
       <c r="Q75" t="s">
-        <v>909</v>
+        <v>932</v>
       </c>
       <c r="R75" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="S75" t="s">
-        <v>311</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:19">
       <c r="A76" s="2" t="s">
-        <v>910</v>
+        <v>933</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>911</v>
+        <v>934</v>
       </c>
       <c r="C76" t="s">
-        <v>912</v>
+        <v>935</v>
       </c>
       <c r="D76" t="s">
-        <v>913</v>
+        <v>936</v>
       </c>
       <c r="E76" t="s">
-        <v>914</v>
+        <v>937</v>
       </c>
       <c r="F76" t="s">
-        <v>512</v>
+        <v>543</v>
       </c>
       <c r="G76" t="s">
-        <v>915</v>
+        <v>938</v>
       </c>
       <c r="H76" t="s">
-        <v>916</v>
+        <v>939</v>
       </c>
       <c r="I76" t="s">
-        <v>917</v>
+        <v>940</v>
       </c>
       <c r="J76" t="s">
-        <v>918</v>
+        <v>941</v>
       </c>
       <c r="K76" t="s">
-        <v>919</v>
+        <v>942</v>
       </c>
       <c r="L76" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
       <c r="M76" t="s">
         <v>11</v>
       </c>
       <c r="N76" t="s">
-        <v>417</v>
+        <v>444</v>
       </c>
       <c r="O76" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="Q76" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="R76" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="S76" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
     </row>
     <row r="77" spans="1:19">
       <c r="A77" s="2" t="s">
-        <v>921</v>
+        <v>944</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>922</v>
+        <v>945</v>
       </c>
       <c r="C77" t="s">
-        <v>923</v>
+        <v>946</v>
       </c>
       <c r="D77" t="s">
-        <v>924</v>
+        <v>947</v>
       </c>
       <c r="E77" t="s">
-        <v>403</v>
+        <v>431</v>
       </c>
       <c r="F77" t="s">
-        <v>8</v>
+        <v>948</v>
       </c>
       <c r="G77" t="s">
-        <v>888</v>
+        <v>912</v>
       </c>
       <c r="H77" t="s">
-        <v>925</v>
+        <v>949</v>
       </c>
       <c r="I77" t="s">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="J77" t="s">
-        <v>926</v>
+        <v>950</v>
       </c>
       <c r="K77" t="s">
         <v>8</v>
       </c>
       <c r="L77" t="s">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="M77" t="s">
         <v>11</v>
       </c>
       <c r="N77" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="O77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q77" t="s">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="R77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="S77" t="s">
-        <v>8</v>
+        <v>534</v>
       </c>
     </row>
     <row r="78" spans="1:19">
       <c r="A78" s="2" t="s">
-        <v>928</v>
+        <v>952</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="C78" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="D78" t="s">
         <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>325</v>
+        <v>351</v>
       </c>
       <c r="F78" t="s">
-        <v>643</v>
+        <v>674</v>
       </c>
       <c r="G78" t="s">
-        <v>931</v>
+        <v>955</v>
       </c>
       <c r="H78" t="s">
-        <v>932</v>
+        <v>956</v>
       </c>
       <c r="I78" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J78" t="s">
-        <v>933</v>
+        <v>957</v>
       </c>
       <c r="K78" t="s">
-        <v>934</v>
+        <v>958</v>
       </c>
       <c r="L78" t="s">
-        <v>935</v>
+        <v>959</v>
       </c>
       <c r="M78" t="s">
         <v>11</v>
       </c>
       <c r="N78" t="s">
-        <v>537</v>
+        <v>568</v>
       </c>
       <c r="O78" t="s">
-        <v>936</v>
+        <v>960</v>
       </c>
       <c r="P78" t="s">
-        <v>773</v>
+        <v>192</v>
       </c>
       <c r="Q78" t="s">
-        <v>377</v>
+        <v>404</v>
       </c>
       <c r="R78" t="s">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="S78" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
     </row>
     <row r="79" spans="1:19">
       <c r="A79" s="2" t="s">
-        <v>938</v>
+        <v>962</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>939</v>
+        <v>963</v>
       </c>
       <c r="C79" t="s">
-        <v>940</v>
+        <v>964</v>
       </c>
       <c r="D79" t="s">
-        <v>704</v>
+        <v>734</v>
       </c>
       <c r="E79" t="s">
-        <v>568</v>
+        <v>598</v>
       </c>
       <c r="F79" t="s">
-        <v>941</v>
+        <v>965</v>
       </c>
       <c r="G79" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H79" t="s">
-        <v>715</v>
+        <v>745</v>
       </c>
       <c r="I79" t="s">
-        <v>942</v>
+        <v>966</v>
       </c>
       <c r="J79" t="s">
-        <v>943</v>
+        <v>967</v>
       </c>
       <c r="K79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L79" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="M79" t="s">
         <v>11</v>
       </c>
       <c r="N79" t="s">
-        <v>944</v>
+        <v>968</v>
       </c>
       <c r="O79" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="P79" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="Q79" t="s">
-        <v>945</v>
+        <v>969</v>
       </c>
       <c r="R79" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="S79" t="s">
-        <v>946</v>
+        <v>970</v>
       </c>
     </row>
     <row r="80" spans="1:19">
       <c r="A80" s="2" t="s">
-        <v>947</v>
+        <v>971</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>948</v>
+        <v>972</v>
       </c>
       <c r="C80" t="s">
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="E80" t="s">
         <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
       </c>
       <c r="H80" t="s">
-        <v>950</v>
+        <v>974</v>
       </c>
       <c r="I80" t="s">
         <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K80" t="s">
         <v>11</v>
@@ -8835,19 +8919,19 @@
         <v>11</v>
       </c>
       <c r="N80" t="s">
-        <v>951</v>
+        <v>975</v>
       </c>
       <c r="O80" t="s">
-        <v>952</v>
+        <v>976</v>
       </c>
       <c r="P80" t="s">
-        <v>872</v>
+        <v>896</v>
       </c>
       <c r="Q80" t="s">
         <v>11</v>
       </c>
       <c r="R80" t="s">
-        <v>953</v>
+        <v>977</v>
       </c>
       <c r="S80" t="s">
         <v>11</v>
@@ -8855,93 +8939,93 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="2" t="s">
-        <v>954</v>
+        <v>978</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>955</v>
+        <v>979</v>
       </c>
       <c r="C81" t="s">
         <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="E81" t="s">
-        <v>957</v>
+        <v>981</v>
       </c>
       <c r="F81" t="s">
-        <v>958</v>
+        <v>982</v>
       </c>
       <c r="G81" t="s">
-        <v>674</v>
+        <v>705</v>
       </c>
       <c r="H81" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="I81" t="s">
-        <v>960</v>
+        <v>984</v>
       </c>
       <c r="J81" t="s">
-        <v>513</v>
+        <v>544</v>
       </c>
       <c r="K81" t="s">
-        <v>756</v>
+        <v>785</v>
       </c>
       <c r="L81" t="s">
-        <v>426</v>
+        <v>453</v>
       </c>
       <c r="M81" t="s">
         <v>11</v>
       </c>
       <c r="N81" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="O81" t="s">
-        <v>532</v>
+        <v>562</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="Q81" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="R81" t="s">
-        <v>961</v>
+        <v>985</v>
       </c>
       <c r="S81" t="s">
-        <v>962</v>
+        <v>986</v>
       </c>
     </row>
     <row r="82" spans="1:19">
       <c r="A82" s="2" t="s">
-        <v>963</v>
+        <v>987</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>964</v>
+        <v>988</v>
       </c>
       <c r="C82" t="s">
-        <v>965</v>
+        <v>989</v>
       </c>
       <c r="D82" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="E82" t="s">
-        <v>540</v>
+        <v>571</v>
       </c>
       <c r="F82" t="s">
-        <v>750</v>
+        <v>779</v>
       </c>
       <c r="G82" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H82" t="s">
-        <v>847</v>
+        <v>872</v>
       </c>
       <c r="I82" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="J82" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="K82" t="s">
         <v>14</v>
@@ -8953,78 +9037,78 @@
         <v>8</v>
       </c>
       <c r="N82" t="s">
-        <v>966</v>
+        <v>990</v>
       </c>
       <c r="O82" t="s">
-        <v>967</v>
+        <v>991</v>
       </c>
       <c r="P82" t="s">
-        <v>968</v>
+        <v>992</v>
       </c>
       <c r="Q82" t="s">
-        <v>956</v>
+        <v>980</v>
       </c>
       <c r="R82" t="s">
-        <v>969</v>
+        <v>993</v>
       </c>
       <c r="S82" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:19">
       <c r="A83" s="2" t="s">
-        <v>970</v>
+        <v>994</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>971</v>
+        <v>995</v>
       </c>
       <c r="C83" t="s">
-        <v>972</v>
+        <v>996</v>
       </c>
       <c r="D83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>510</v>
       </c>
       <c r="F83" t="s">
-        <v>8</v>
+        <v>997</v>
       </c>
       <c r="G83" t="s">
-        <v>8</v>
+        <v>574</v>
       </c>
       <c r="H83" t="s">
-        <v>973</v>
+        <v>998</v>
       </c>
       <c r="I83" t="s">
         <v>8</v>
       </c>
       <c r="J83" t="s">
-        <v>8</v>
+        <v>999</v>
       </c>
       <c r="K83" t="s">
         <v>8</v>
       </c>
       <c r="L83" t="s">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="M83" t="s">
         <v>8</v>
       </c>
       <c r="N83" t="s">
-        <v>8</v>
+        <v>1001</v>
       </c>
       <c r="O83" t="s">
-        <v>8</v>
+        <v>330</v>
       </c>
       <c r="P83" t="s">
-        <v>8</v>
+        <v>580</v>
       </c>
       <c r="Q83" t="s">
-        <v>8</v>
+        <v>465</v>
       </c>
       <c r="R83" t="s">
-        <v>8</v>
+        <v>1002</v>
       </c>
       <c r="S83" t="s">
         <v>8</v>
@@ -9032,55 +9116,55 @@
     </row>
     <row r="84" spans="1:19">
       <c r="A84" s="2" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>975</v>
+        <v>1004</v>
       </c>
       <c r="C84" t="s">
-        <v>654</v>
+        <v>685</v>
       </c>
       <c r="D84" t="s">
-        <v>976</v>
+        <v>1005</v>
       </c>
       <c r="E84" t="s">
         <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>296</v>
+        <v>234</v>
       </c>
       <c r="G84" t="s">
         <v>11</v>
       </c>
       <c r="H84" t="s">
-        <v>977</v>
+        <v>1006</v>
       </c>
       <c r="I84" t="s">
         <v>11</v>
       </c>
       <c r="J84" t="s">
-        <v>978</v>
+        <v>1007</v>
       </c>
       <c r="K84" t="s">
-        <v>979</v>
+        <v>1008</v>
       </c>
       <c r="L84" t="s">
-        <v>980</v>
+        <v>1009</v>
       </c>
       <c r="M84" t="s">
         <v>11</v>
       </c>
       <c r="N84" t="s">
-        <v>981</v>
+        <v>1010</v>
       </c>
       <c r="O84" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P84" t="s">
-        <v>982</v>
+        <v>1011</v>
       </c>
       <c r="Q84" t="s">
-        <v>983</v>
+        <v>1012</v>
       </c>
       <c r="R84" t="s">
         <v>11</v>
@@ -9091,108 +9175,108 @@
     </row>
     <row r="85" spans="1:19">
       <c r="A85" s="2" t="s">
-        <v>984</v>
+        <v>1013</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>985</v>
+        <v>1014</v>
       </c>
       <c r="C85" t="s">
-        <v>986</v>
+        <v>1015</v>
       </c>
       <c r="D85" t="s">
-        <v>987</v>
+        <v>1016</v>
       </c>
       <c r="E85" t="s">
-        <v>988</v>
+        <v>1017</v>
       </c>
       <c r="F85" t="s">
-        <v>989</v>
+        <v>1018</v>
       </c>
       <c r="G85" t="s">
-        <v>990</v>
+        <v>1019</v>
       </c>
       <c r="H85" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="I85" t="s">
-        <v>991</v>
+        <v>1020</v>
       </c>
       <c r="J85" t="s">
-        <v>713</v>
+        <v>743</v>
       </c>
       <c r="K85" t="s">
-        <v>992</v>
+        <v>1021</v>
       </c>
       <c r="L85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M85" t="s">
         <v>11</v>
       </c>
       <c r="N85" t="s">
-        <v>993</v>
+        <v>1022</v>
       </c>
       <c r="O85" t="s">
-        <v>994</v>
+        <v>1023</v>
       </c>
       <c r="P85" t="s">
-        <v>995</v>
+        <v>1024</v>
       </c>
       <c r="Q85" t="s">
-        <v>572</v>
+        <v>602</v>
       </c>
       <c r="R85" t="s">
-        <v>692</v>
+        <v>722</v>
       </c>
       <c r="S85" t="s">
-        <v>358</v>
+        <v>384</v>
       </c>
     </row>
     <row r="86" spans="1:19">
       <c r="A86" s="2" t="s">
-        <v>996</v>
+        <v>1025</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>997</v>
+        <v>1026</v>
       </c>
       <c r="C86" t="s">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="D86" t="s">
-        <v>999</v>
+        <v>1028</v>
       </c>
       <c r="E86" t="s">
-        <v>1000</v>
+        <v>1029</v>
       </c>
       <c r="F86" t="s">
-        <v>959</v>
+        <v>983</v>
       </c>
       <c r="G86" t="s">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="H86" t="s">
-        <v>519</v>
+        <v>337</v>
       </c>
       <c r="I86" t="s">
         <v>8</v>
       </c>
       <c r="J86" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="K86" t="s">
-        <v>722</v>
+        <v>752</v>
       </c>
       <c r="L86" t="s">
-        <v>937</v>
+        <v>961</v>
       </c>
       <c r="M86" t="s">
         <v>11</v>
       </c>
       <c r="N86" t="s">
-        <v>1001</v>
+        <v>1030</v>
       </c>
       <c r="O86" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="P86" t="s">
         <v>8</v>
@@ -9201,136 +9285,136 @@
         <v>8</v>
       </c>
       <c r="R86" t="s">
-        <v>1002</v>
+        <v>1031</v>
       </c>
       <c r="S86" t="s">
-        <v>1003</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="2" t="s">
-        <v>1004</v>
+        <v>1033</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1005</v>
+        <v>1034</v>
       </c>
       <c r="C87" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="D87" t="s">
-        <v>1006</v>
+        <v>1035</v>
       </c>
       <c r="E87" t="s">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="F87" t="s">
-        <v>1007</v>
+        <v>1036</v>
       </c>
       <c r="G87" t="s">
-        <v>546</v>
+        <v>577</v>
       </c>
       <c r="H87" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I87" t="s">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="J87" t="s">
-        <v>631</v>
+        <v>662</v>
       </c>
       <c r="K87" t="s">
-        <v>889</v>
+        <v>237</v>
       </c>
       <c r="L87" t="s">
-        <v>949</v>
+        <v>973</v>
       </c>
       <c r="M87" t="s">
         <v>11</v>
       </c>
       <c r="N87" t="s">
-        <v>590</v>
+        <v>621</v>
       </c>
       <c r="O87" t="s">
-        <v>650</v>
+        <v>681</v>
       </c>
       <c r="P87" t="s">
-        <v>611</v>
+        <v>642</v>
       </c>
       <c r="Q87" t="s">
-        <v>1008</v>
+        <v>1037</v>
       </c>
       <c r="R87" t="s">
-        <v>1009</v>
+        <v>1038</v>
       </c>
       <c r="S87" t="s">
-        <v>1010</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="88" spans="1:19">
       <c r="A88" s="2" t="s">
-        <v>1011</v>
+        <v>1040</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1012</v>
+        <v>1041</v>
       </c>
       <c r="C88" t="s">
-        <v>1013</v>
+        <v>1042</v>
       </c>
       <c r="D88" t="s">
-        <v>998</v>
+        <v>1027</v>
       </c>
       <c r="E88" t="s">
-        <v>1014</v>
+        <v>1043</v>
       </c>
       <c r="F88" t="s">
-        <v>1015</v>
+        <v>1044</v>
       </c>
       <c r="G88" t="s">
-        <v>1016</v>
+        <v>1045</v>
       </c>
       <c r="H88" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I88" t="s">
-        <v>1017</v>
+        <v>1001</v>
       </c>
       <c r="J88" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="K88" t="s">
-        <v>525</v>
+        <v>555</v>
       </c>
       <c r="L88" t="s">
-        <v>1018</v>
+        <v>1046</v>
       </c>
       <c r="M88" t="s">
         <v>11</v>
       </c>
       <c r="N88" t="s">
-        <v>1019</v>
+        <v>1047</v>
       </c>
       <c r="O88" t="s">
-        <v>1020</v>
+        <v>1048</v>
       </c>
       <c r="P88" t="s">
-        <v>1021</v>
+        <v>1049</v>
       </c>
       <c r="Q88" t="s">
-        <v>1022</v>
+        <v>1050</v>
       </c>
       <c r="R88" t="s">
-        <v>315</v>
+        <v>185</v>
       </c>
       <c r="S88" t="s">
-        <v>1023</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="89" spans="1:19">
       <c r="A89" s="2" t="s">
-        <v>1024</v>
+        <v>1052</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>1025</v>
+        <v>1053</v>
       </c>
       <c r="C89" t="s">
         <v>11</v>
@@ -9339,10 +9423,10 @@
         <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="F89" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="G89" t="s">
         <v>11</v>
@@ -9354,31 +9438,31 @@
         <v>8</v>
       </c>
       <c r="J89" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="K89" t="s">
         <v>11</v>
       </c>
       <c r="L89" t="s">
-        <v>901</v>
+        <v>924</v>
       </c>
       <c r="M89" t="s">
         <v>11</v>
       </c>
       <c r="N89" t="s">
-        <v>1026</v>
+        <v>1054</v>
       </c>
       <c r="O89" t="s">
-        <v>908</v>
+        <v>931</v>
       </c>
       <c r="P89" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q89" t="s">
-        <v>930</v>
+        <v>954</v>
       </c>
       <c r="R89" t="s">
-        <v>709</v>
+        <v>739</v>
       </c>
       <c r="S89" t="s">
         <v>11</v>
@@ -9386,120 +9470,120 @@
     </row>
     <row r="90" spans="1:19">
       <c r="A90" s="2" t="s">
-        <v>1027</v>
+        <v>1055</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1028</v>
+        <v>1056</v>
       </c>
       <c r="C90" t="s">
-        <v>1029</v>
+        <v>1057</v>
       </c>
       <c r="D90" t="s">
-        <v>1030</v>
+        <v>1058</v>
       </c>
       <c r="E90" t="s">
-        <v>1031</v>
+        <v>1059</v>
       </c>
       <c r="F90" t="s">
-        <v>524</v>
+        <v>554</v>
       </c>
       <c r="G90" t="s">
-        <v>1032</v>
+        <v>1060</v>
       </c>
       <c r="H90" t="s">
-        <v>8</v>
+        <v>310</v>
       </c>
       <c r="I90" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J90" t="s">
-        <v>385</v>
+        <v>412</v>
       </c>
       <c r="K90" t="s">
-        <v>1033</v>
+        <v>1061</v>
       </c>
       <c r="L90" t="s">
-        <v>600</v>
+        <v>631</v>
       </c>
       <c r="M90" t="s">
         <v>11</v>
       </c>
       <c r="N90" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O90" t="s">
-        <v>1034</v>
+        <v>1062</v>
       </c>
       <c r="P90" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q90" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="R90" t="s">
-        <v>1035</v>
+        <v>1063</v>
       </c>
       <c r="S90" t="s">
-        <v>1036</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="91" spans="1:19">
       <c r="A91" s="2" t="s">
-        <v>1037</v>
+        <v>1065</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1038</v>
+        <v>1066</v>
       </c>
       <c r="C91" t="s">
         <v>8</v>
       </c>
       <c r="D91" t="s">
-        <v>1039</v>
+        <v>1067</v>
       </c>
       <c r="E91" t="s">
-        <v>1040</v>
+        <v>1068</v>
       </c>
       <c r="F91" t="s">
-        <v>1041</v>
+        <v>1069</v>
       </c>
       <c r="G91" t="s">
-        <v>691</v>
+        <v>721</v>
       </c>
       <c r="H91" t="s">
-        <v>567</v>
+        <v>597</v>
       </c>
       <c r="I91" t="s">
         <v>8</v>
       </c>
       <c r="J91" t="s">
-        <v>1042</v>
+        <v>1070</v>
       </c>
       <c r="K91" t="s">
-        <v>1043</v>
+        <v>1071</v>
       </c>
       <c r="L91" t="s">
-        <v>1044</v>
+        <v>1072</v>
       </c>
       <c r="M91" t="s">
         <v>11</v>
       </c>
       <c r="N91" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O91" t="s">
-        <v>1045</v>
+        <v>1073</v>
       </c>
       <c r="P91" t="s">
-        <v>1046</v>
+        <v>1074</v>
       </c>
       <c r="Q91" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R91" t="s">
-        <v>432</v>
+        <v>343</v>
       </c>
       <c r="S91" t="s">
-        <v>1047</v>
+        <v>1075</v>
       </c>
     </row>
   </sheetData>
